--- a/Testing/Account Values (Overlapped).xlsx
+++ b/Testing/Account Values (Overlapped).xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B755"/>
+  <dimension ref="A1:B631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
         <v>44655</v>
       </c>
       <c r="B2" t="n">
-        <v>105847927.4765791</v>
+        <v>104197612.2099604</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>44656</v>
       </c>
       <c r="B3" t="n">
-        <v>105822975.6037447</v>
+        <v>104099488.1549464</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>44657</v>
       </c>
       <c r="B4" t="n">
-        <v>105799912.7090282</v>
+        <v>104037316.7444106</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>44658</v>
       </c>
       <c r="B5" t="n">
-        <v>105818994.4945032</v>
+        <v>104041286.2168329</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>44659</v>
       </c>
       <c r="B6" t="n">
-        <v>105812479.8016886</v>
+        <v>104003405.3733356</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>44662</v>
       </c>
       <c r="B7" t="n">
-        <v>105756279.2162694</v>
+        <v>103909891.4315157</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>44663</v>
       </c>
       <c r="B8" t="n">
-        <v>105727620.0121467</v>
+        <v>103832453.09949</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>44664</v>
       </c>
       <c r="B9" t="n">
-        <v>105812633.8154292</v>
+        <v>103967631.857072</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>44665</v>
       </c>
       <c r="B10" t="n">
-        <v>105747680.3229057</v>
+        <v>103846377.9968117</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         <v>44669</v>
       </c>
       <c r="B11" t="n">
-        <v>105784380.465524</v>
+        <v>103865415.3851266</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         <v>44670</v>
       </c>
       <c r="B12" t="n">
-        <v>105987436.9156199</v>
+        <v>104254108.5779385</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>44671</v>
       </c>
       <c r="B13" t="n">
-        <v>106089994.46548</v>
+        <v>104465018.7813217</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>44672</v>
       </c>
       <c r="B14" t="n">
-        <v>105967776.7970942</v>
+        <v>104281742.1282984</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>44673</v>
       </c>
       <c r="B15" t="n">
-        <v>105703579.0723393</v>
+        <v>103798589.241385</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>44676</v>
       </c>
       <c r="B16" t="n">
-        <v>105764939.2246979</v>
+        <v>103878651.3121508</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>44677</v>
       </c>
       <c r="B17" t="n">
-        <v>105516115.8878843</v>
+        <v>103455853.6936119</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>44678</v>
       </c>
       <c r="B18" t="n">
-        <v>105603779.8157889</v>
+        <v>103600576.3706373</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>44679</v>
       </c>
       <c r="B19" t="n">
-        <v>105841546.9337026</v>
+        <v>104000985.7433555</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>44680</v>
       </c>
       <c r="B20" t="n">
-        <v>105531207.5520557</v>
+        <v>103438770.3763871</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>44683</v>
       </c>
       <c r="B21" t="n">
-        <v>105606304.0082805</v>
+        <v>103580563.7510735</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>44684</v>
       </c>
       <c r="B22" t="n">
-        <v>105714201.6721508</v>
+        <v>103750360.1704207</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>44685</v>
       </c>
       <c r="B23" t="n">
-        <v>106037696.3550267</v>
+        <v>104332161.6506587</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>44686</v>
       </c>
       <c r="B24" t="n">
-        <v>105739977.6113035</v>
+        <v>103742110.2126147</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>44687</v>
       </c>
       <c r="B25" t="n">
-        <v>105647026.522878</v>
+        <v>103576390.5735317</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>44690</v>
       </c>
       <c r="B26" t="n">
-        <v>105375144.3086593</v>
+        <v>103077473.9929305</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>44691</v>
       </c>
       <c r="B27" t="n">
-        <v>105388443.9951451</v>
+        <v>103081118.1321128</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>44692</v>
       </c>
       <c r="B28" t="n">
-        <v>105234413.8854473</v>
+        <v>102709130.4100673</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>44693</v>
       </c>
       <c r="B29" t="n">
-        <v>105255904.8303622</v>
+        <v>102819489.5552686</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>44694</v>
       </c>
       <c r="B30" t="n">
-        <v>105466272.7950695</v>
+        <v>103371191.4416727</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>44697</v>
       </c>
       <c r="B31" t="n">
-        <v>105411909.1017761</v>
+        <v>103227189.6961707</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>44698</v>
       </c>
       <c r="B32" t="n">
-        <v>105689869.8030634</v>
+        <v>103790328.7213602</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>44699</v>
       </c>
       <c r="B33" t="n">
-        <v>105362690.8529587</v>
+        <v>103090475.5825297</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>44700</v>
       </c>
       <c r="B34" t="n">
-        <v>105383541.5695522</v>
+        <v>103158402.1238325</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>44701</v>
       </c>
       <c r="B35" t="n">
-        <v>105432502.977942</v>
+        <v>103191958.5551024</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>44704</v>
       </c>
       <c r="B36" t="n">
-        <v>105569078.4824665</v>
+        <v>103386605.1338034</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>44705</v>
       </c>
       <c r="B37" t="n">
-        <v>105472075.8059531</v>
+        <v>103180621.5963038</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>44706</v>
       </c>
       <c r="B38" t="n">
-        <v>105554316.1968253</v>
+        <v>103384348.2202872</v>
       </c>
     </row>
     <row r="39">
@@ -752,7 +752,7 @@
         <v>44707</v>
       </c>
       <c r="B39" t="n">
-        <v>105796493.8505556</v>
+        <v>103906168.5247039</v>
       </c>
     </row>
     <row r="40">
@@ -760,7 +760,7 @@
         <v>44708</v>
       </c>
       <c r="B40" t="n">
-        <v>106064192.289361</v>
+        <v>104519916.5760418</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>44712</v>
       </c>
       <c r="B41" t="n">
-        <v>105994713.2077811</v>
+        <v>104322791.955206</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>44713</v>
       </c>
       <c r="B42" t="n">
-        <v>105853913.0321323</v>
+        <v>104006034.553057</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>44714</v>
       </c>
       <c r="B43" t="n">
-        <v>106083044.1561474</v>
+        <v>104584350.1758935</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>44715</v>
       </c>
       <c r="B44" t="n">
-        <v>105957747.6132074</v>
+        <v>104301402.2926276</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>44718</v>
       </c>
       <c r="B45" t="n">
-        <v>105999219.7456464</v>
+        <v>104386734.9738448</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>44719</v>
       </c>
       <c r="B46" t="n">
-        <v>106106742.2051636</v>
+        <v>104607926.715999</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>44720</v>
       </c>
       <c r="B47" t="n">
-        <v>105943523.8960692</v>
+        <v>104249067.4168106</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>44721</v>
       </c>
       <c r="B48" t="n">
-        <v>105769672.9612669</v>
+        <v>103830369.8730295</v>
       </c>
     </row>
     <row r="49">
@@ -832,7 +832,7 @@
         <v>44722</v>
       </c>
       <c r="B49" t="n">
-        <v>105498827.1082523</v>
+        <v>103218932.9485039</v>
       </c>
     </row>
     <row r="50">
@@ -840,7 +840,7 @@
         <v>44725</v>
       </c>
       <c r="B50" t="n">
-        <v>105155720.5578767</v>
+        <v>102432403.5296474</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>44726</v>
       </c>
       <c r="B51" t="n">
-        <v>105167383.6438253</v>
+        <v>102453409.6591775</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>44727</v>
       </c>
       <c r="B52" t="n">
-        <v>105316175.9330098</v>
+        <v>102754626.3179332</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>44728</v>
       </c>
       <c r="B53" t="n">
-        <v>104978822.81674</v>
+        <v>101984388.8302236</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>44729</v>
       </c>
       <c r="B54" t="n">
-        <v>105045972.3814738</v>
+        <v>102125382.5542095</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>44733</v>
       </c>
       <c r="B55" t="n">
-        <v>105226167.2159755</v>
+        <v>102467149.2739608</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>44734</v>
       </c>
       <c r="B56" t="n">
-        <v>105226797.4293302</v>
+        <v>102483321.9903456</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>44735</v>
       </c>
       <c r="B57" t="n">
-        <v>105315821.2122019</v>
+        <v>102747056.4611584</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>44736</v>
       </c>
       <c r="B58" t="n">
-        <v>105696891.3792168</v>
+        <v>103553590.0251853</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>44739</v>
       </c>
       <c r="B59" t="n">
-        <v>105664424.9692012</v>
+        <v>103501568.8416538</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>44740</v>
       </c>
       <c r="B60" t="n">
-        <v>105474816.7181738</v>
+        <v>103054337.4305083</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>44741</v>
       </c>
       <c r="B61" t="n">
-        <v>105471870.7470065</v>
+        <v>103052658.8171226</v>
       </c>
     </row>
     <row r="62">
@@ -936,7 +936,7 @@
         <v>44742</v>
       </c>
       <c r="B62" t="n">
-        <v>105410491.9856633</v>
+        <v>102903644.1735514</v>
       </c>
     </row>
     <row r="63">
@@ -944,7 +944,7 @@
         <v>44743</v>
       </c>
       <c r="B63" t="n">
-        <v>105539503.4821368</v>
+        <v>103126583.6293922</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>44747</v>
       </c>
       <c r="B64" t="n">
-        <v>105518753.7186299</v>
+        <v>103112994.8078964</v>
       </c>
     </row>
     <row r="65">
@@ -960,7 +960,7 @@
         <v>44748</v>
       </c>
       <c r="B65" t="n">
-        <v>105586004.6710905</v>
+        <v>103235818.8785145</v>
       </c>
     </row>
     <row r="66">
@@ -968,7 +968,7 @@
         <v>44749</v>
       </c>
       <c r="B66" t="n">
-        <v>105756129.18855</v>
+        <v>103632426.0901812</v>
       </c>
     </row>
     <row r="67">
@@ -976,7 +976,7 @@
         <v>44750</v>
       </c>
       <c r="B67" t="n">
-        <v>105718227.1194233</v>
+        <v>103545310.6574411</v>
       </c>
     </row>
     <row r="68">
@@ -984,7 +984,7 @@
         <v>44753</v>
       </c>
       <c r="B68" t="n">
-        <v>105639390.9357766</v>
+        <v>103304465.4373846</v>
       </c>
     </row>
     <row r="69">
@@ -992,7 +992,7 @@
         <v>44754</v>
       </c>
       <c r="B69" t="n">
-        <v>105561740.3058402</v>
+        <v>103166716.2210036</v>
       </c>
     </row>
     <row r="70">
@@ -1000,7 +1000,7 @@
         <v>44755</v>
       </c>
       <c r="B70" t="n">
-        <v>105494570.4185962</v>
+        <v>103027591.4635348</v>
       </c>
     </row>
     <row r="71">
@@ -1008,7 +1008,7 @@
         <v>44756</v>
       </c>
       <c r="B71" t="n">
-        <v>105411407.3302905</v>
+        <v>102912673.5922866</v>
       </c>
     </row>
     <row r="72">
@@ -1016,7 +1016,7 @@
         <v>44757</v>
       </c>
       <c r="B72" t="n">
-        <v>105650286.5371626</v>
+        <v>103407434.4288019</v>
       </c>
     </row>
     <row r="73">
@@ -1024,7 +1024,7 @@
         <v>44760</v>
       </c>
       <c r="B73" t="n">
-        <v>105559487.1964887</v>
+        <v>103175453.3608779</v>
       </c>
     </row>
     <row r="74">
@@ -1032,7 +1032,7 @@
         <v>44761</v>
       </c>
       <c r="B74" t="n">
-        <v>105964980.6430694</v>
+        <v>104089838.8114021</v>
       </c>
     </row>
     <row r="75">
@@ -1040,7 +1040,7 @@
         <v>44762</v>
       </c>
       <c r="B75" t="n">
-        <v>106055845.4990019</v>
+        <v>104347212.0095933</v>
       </c>
     </row>
     <row r="76">
@@ -1048,7 +1048,7 @@
         <v>44763</v>
       </c>
       <c r="B76" t="n">
-        <v>106212896.574487</v>
+        <v>104687788.9800304</v>
       </c>
     </row>
     <row r="77">
@@ -1056,7 +1056,7 @@
         <v>44764</v>
       </c>
       <c r="B77" t="n">
-        <v>106197340.7917967</v>
+        <v>104591065.7271973</v>
       </c>
     </row>
     <row r="78">
@@ -1064,7 +1064,7 @@
         <v>44767</v>
       </c>
       <c r="B78" t="n">
-        <v>106205307.3728769</v>
+        <v>104587528.7771897</v>
       </c>
     </row>
     <row r="79">
@@ -1072,7 +1072,7 @@
         <v>44768</v>
       </c>
       <c r="B79" t="n">
-        <v>106191004.854574</v>
+        <v>104516958.3902166</v>
       </c>
     </row>
     <row r="80">
@@ -1080,7 +1080,7 @@
         <v>44769</v>
       </c>
       <c r="B80" t="n">
-        <v>106459393.1007471</v>
+        <v>105174196.2070227</v>
       </c>
     </row>
     <row r="81">
@@ -1088,7 +1088,7 @@
         <v>44770</v>
       </c>
       <c r="B81" t="n">
-        <v>106676051.7699259</v>
+        <v>105659032.3136361</v>
       </c>
     </row>
     <row r="82">
@@ -1096,7 +1096,7 @@
         <v>44771</v>
       </c>
       <c r="B82" t="n">
-        <v>106836571.1644921</v>
+        <v>105993189.6569762</v>
       </c>
     </row>
     <row r="83">
@@ -1104,7 +1104,7 @@
         <v>44774</v>
       </c>
       <c r="B83" t="n">
-        <v>106749251.7399542</v>
+        <v>105854330.4020337</v>
       </c>
     </row>
     <row r="84">
@@ -1112,7 +1112,7 @@
         <v>44775</v>
       </c>
       <c r="B84" t="n">
-        <v>106695435.025347</v>
+        <v>105729360.4078358</v>
       </c>
     </row>
     <row r="85">
@@ -1120,7 +1120,7 @@
         <v>44776</v>
       </c>
       <c r="B85" t="n">
-        <v>106867881.791878</v>
+        <v>106123592.1310313</v>
       </c>
     </row>
     <row r="86">
@@ -1128,7 +1128,7 @@
         <v>44777</v>
       </c>
       <c r="B86" t="n">
-        <v>106868162.5874166</v>
+        <v>106124249.5981823</v>
       </c>
     </row>
     <row r="87">
@@ -1136,7 +1136,7 @@
         <v>44778</v>
       </c>
       <c r="B87" t="n">
-        <v>106925383.2465177</v>
+        <v>106201935.4525772</v>
       </c>
     </row>
     <row r="88">
@@ -1144,7 +1144,7 @@
         <v>44781</v>
       </c>
       <c r="B88" t="n">
-        <v>106947683.7069494</v>
+        <v>106228962.8331316</v>
       </c>
     </row>
     <row r="89">
@@ -1152,7 +1152,7 @@
         <v>44782</v>
       </c>
       <c r="B89" t="n">
-        <v>106898712.674482</v>
+        <v>106016395.0173966</v>
       </c>
     </row>
     <row r="90">
@@ -1160,7 +1160,7 @@
         <v>44783</v>
       </c>
       <c r="B90" t="n">
-        <v>107159126.1360604</v>
+        <v>106676440.4217166</v>
       </c>
     </row>
     <row r="91">
@@ -1168,7 +1168,7 @@
         <v>44784</v>
       </c>
       <c r="B91" t="n">
-        <v>107228966.3969253</v>
+        <v>106748899.9353838</v>
       </c>
     </row>
     <row r="92">
@@ -1176,7 +1176,7 @@
         <v>44785</v>
       </c>
       <c r="B92" t="n">
-        <v>107437224.7712608</v>
+        <v>107221853.05453</v>
       </c>
     </row>
     <row r="93">
@@ -1184,7 +1184,7 @@
         <v>44788</v>
       </c>
       <c r="B93" t="n">
-        <v>107451512.9365821</v>
+        <v>107277954.8960247</v>
       </c>
     </row>
     <row r="94">
@@ -1192,7 +1192,7 @@
         <v>44789</v>
       </c>
       <c r="B94" t="n">
-        <v>107469791.4245504</v>
+        <v>107315294.4297013</v>
       </c>
     </row>
     <row r="95">
@@ -1200,7 +1200,7 @@
         <v>44790</v>
       </c>
       <c r="B95" t="n">
-        <v>107381079.4708293</v>
+        <v>107079397.4382443</v>
       </c>
     </row>
     <row r="96">
@@ -1208,7 +1208,7 @@
         <v>44791</v>
       </c>
       <c r="B96" t="n">
-        <v>107459430.8789812</v>
+        <v>107230646.6749622</v>
       </c>
     </row>
     <row r="97">
@@ -1216,7 +1216,7 @@
         <v>44792</v>
       </c>
       <c r="B97" t="n">
-        <v>107328342.277178</v>
+        <v>106904709.7781986</v>
       </c>
     </row>
     <row r="98">
@@ -1224,7 +1224,7 @@
         <v>44795</v>
       </c>
       <c r="B98" t="n">
-        <v>107061339.2078322</v>
+        <v>106330489.8596828</v>
       </c>
     </row>
     <row r="99">
@@ -1232,7 +1232,7 @@
         <v>44796</v>
       </c>
       <c r="B99" t="n">
-        <v>107017550.8258029</v>
+        <v>106208516.1053471</v>
       </c>
     </row>
     <row r="100">
@@ -1240,7 +1240,7 @@
         <v>44797</v>
       </c>
       <c r="B100" t="n">
-        <v>107074536.5555715</v>
+        <v>106311540.8178547</v>
       </c>
     </row>
     <row r="101">
@@ -1248,7 +1248,7 @@
         <v>44798</v>
       </c>
       <c r="B101" t="n">
-        <v>107260322.470658</v>
+        <v>106740784.1187712</v>
       </c>
     </row>
     <row r="102">
@@ -1256,7 +1256,7 @@
         <v>44799</v>
       </c>
       <c r="B102" t="n">
-        <v>106938989.2816277</v>
+        <v>105945892.8485669</v>
       </c>
     </row>
     <row r="103">
@@ -1264,7 +1264,7 @@
         <v>44802</v>
       </c>
       <c r="B103" t="n">
-        <v>106869339.405103</v>
+        <v>105788830.3874913</v>
       </c>
     </row>
     <row r="104">
@@ -1272,7 +1272,7 @@
         <v>44803</v>
       </c>
       <c r="B104" t="n">
-        <v>106800687.6311612</v>
+        <v>105604315.6841047</v>
       </c>
     </row>
     <row r="105">
@@ -1280,7 +1280,7 @@
         <v>44804</v>
       </c>
       <c r="B105" t="n">
-        <v>106754132.042871</v>
+        <v>105486913.1369735</v>
       </c>
     </row>
     <row r="106">
@@ -1288,7 +1288,7 @@
         <v>44805</v>
       </c>
       <c r="B106" t="n">
-        <v>106791216.6568427</v>
+        <v>105513852.9997301</v>
       </c>
     </row>
     <row r="107">
@@ -1296,7 +1296,7 @@
         <v>44806</v>
       </c>
       <c r="B107" t="n">
-        <v>106719854.51148</v>
+        <v>105363235.2915141</v>
       </c>
     </row>
     <row r="108">
@@ -1304,7 +1304,7 @@
         <v>44810</v>
       </c>
       <c r="B108" t="n">
-        <v>106722602.6577283</v>
+        <v>105382375.8814861</v>
       </c>
     </row>
     <row r="109">
@@ -1312,7 +1312,7 @@
         <v>44811</v>
       </c>
       <c r="B109" t="n">
-        <v>107001709.6065299</v>
+        <v>105965243.2671059</v>
       </c>
     </row>
     <row r="110">
@@ -1320,7 +1320,7 @@
         <v>44812</v>
       </c>
       <c r="B110" t="n">
-        <v>107160281.3786913</v>
+        <v>106235474.7523183</v>
       </c>
     </row>
     <row r="111">
@@ -1328,7 +1328,7 @@
         <v>44813</v>
       </c>
       <c r="B111" t="n">
-        <v>107288113.3955663</v>
+        <v>106534794.1679157</v>
       </c>
     </row>
     <row r="112">
@@ -1336,7 +1336,7 @@
         <v>44816</v>
       </c>
       <c r="B112" t="n">
-        <v>107380594.297691</v>
+        <v>106704295.1450313</v>
       </c>
     </row>
     <row r="113">
@@ -1344,7 +1344,7 @@
         <v>44817</v>
       </c>
       <c r="B113" t="n">
-        <v>107032256.7305566</v>
+        <v>105907817.959361</v>
       </c>
     </row>
     <row r="114">
@@ -1352,7 +1352,7 @@
         <v>44818</v>
       </c>
       <c r="B114" t="n">
-        <v>107044258.1145405</v>
+        <v>105923087.8604417</v>
       </c>
     </row>
     <row r="115">
@@ -1360,7 +1360,7 @@
         <v>44819</v>
       </c>
       <c r="B115" t="n">
-        <v>107032874.6797744</v>
+        <v>105841684.2611255</v>
       </c>
     </row>
     <row r="116">
@@ -1368,7 +1368,7 @@
         <v>44820</v>
       </c>
       <c r="B116" t="n">
-        <v>106931888.9386914</v>
+        <v>105609204.7851175</v>
       </c>
     </row>
     <row r="117">
@@ -1376,7 +1376,7 @@
         <v>44823</v>
       </c>
       <c r="B117" t="n">
-        <v>107018464.2641766</v>
+        <v>105792053.7880546</v>
       </c>
     </row>
     <row r="118">
@@ -1384,7 +1384,7 @@
         <v>44824</v>
       </c>
       <c r="B118" t="n">
-        <v>106842361.4339931</v>
+        <v>105473323.4377896</v>
       </c>
     </row>
     <row r="119">
@@ -1392,7 +1392,7 @@
         <v>44825</v>
       </c>
       <c r="B119" t="n">
-        <v>106675944.091234</v>
+        <v>105151969.0878231</v>
       </c>
     </row>
     <row r="120">
@@ -1400,7 +1400,7 @@
         <v>44826</v>
       </c>
       <c r="B120" t="n">
-        <v>106524015.5589185</v>
+        <v>104813945.4606946</v>
       </c>
     </row>
     <row r="121">
@@ -1408,7 +1408,7 @@
         <v>44827</v>
       </c>
       <c r="B121" t="n">
-        <v>106430292.6524154</v>
+        <v>104622823.7437861</v>
       </c>
     </row>
     <row r="122">
@@ -1416,7 +1416,7 @@
         <v>44830</v>
       </c>
       <c r="B122" t="n">
-        <v>106280806.8092144</v>
+        <v>104324897.4885968</v>
       </c>
     </row>
     <row r="123">
@@ -1424,7 +1424,7 @@
         <v>44831</v>
       </c>
       <c r="B123" t="n">
-        <v>106286437.6920267</v>
+        <v>104329921.5758916</v>
       </c>
     </row>
     <row r="124">
@@ -1432,7 +1432,7 @@
         <v>44832</v>
       </c>
       <c r="B124" t="n">
-        <v>106497516.0954875</v>
+        <v>104769230.8786864</v>
       </c>
     </row>
     <row r="125">
@@ -1440,7 +1440,7 @@
         <v>44833</v>
       </c>
       <c r="B125" t="n">
-        <v>106452266.4339392</v>
+        <v>104553858.8658273</v>
       </c>
     </row>
     <row r="126">
@@ -1448,7 +1448,7 @@
         <v>44834</v>
       </c>
       <c r="B126" t="n">
-        <v>106340741.7209642</v>
+        <v>104313697.4834392</v>
       </c>
     </row>
     <row r="127">
@@ -1456,7 +1456,7 @@
         <v>44837</v>
       </c>
       <c r="B127" t="n">
-        <v>106633123.9139915</v>
+        <v>104950023.2732261</v>
       </c>
     </row>
     <row r="128">
@@ -1464,7 +1464,7 @@
         <v>44838</v>
       </c>
       <c r="B128" t="n">
-        <v>106994531.7491737</v>
+        <v>105765292.8221711</v>
       </c>
     </row>
     <row r="129">
@@ -1472,7 +1472,7 @@
         <v>44839</v>
       </c>
       <c r="B129" t="n">
-        <v>106962560.9598937</v>
+        <v>105733143.4032974</v>
       </c>
     </row>
     <row r="130">
@@ -1480,7 +1480,7 @@
         <v>44840</v>
       </c>
       <c r="B130" t="n">
-        <v>106870067.4136648</v>
+        <v>105531775.159236</v>
       </c>
     </row>
     <row r="131">
@@ -1488,7 +1488,7 @@
         <v>44841</v>
       </c>
       <c r="B131" t="n">
-        <v>106617125.0777025</v>
+        <v>104893448.4774665</v>
       </c>
     </row>
     <row r="132">
@@ -1496,7 +1496,7 @@
         <v>44844</v>
       </c>
       <c r="B132" t="n">
-        <v>106584042.3829805</v>
+        <v>104768428.0266112</v>
       </c>
     </row>
     <row r="133">
@@ -1504,7 +1504,7 @@
         <v>44845</v>
       </c>
       <c r="B133" t="n">
-        <v>106553273.5160192</v>
+        <v>104579283.9686145</v>
       </c>
     </row>
     <row r="134">
@@ -1512,7 +1512,7 @@
         <v>44846</v>
       </c>
       <c r="B134" t="n">
-        <v>106477776.2468024</v>
+        <v>104404698.7719253</v>
       </c>
     </row>
     <row r="135">
@@ -1520,7 +1520,7 @@
         <v>44847</v>
       </c>
       <c r="B135" t="n">
-        <v>106764554.1933705</v>
+        <v>105006703.3052045</v>
       </c>
     </row>
     <row r="136">
@@ -1528,7 +1528,7 @@
         <v>44848</v>
       </c>
       <c r="B136" t="n">
-        <v>106545873.0917024</v>
+        <v>104491325.5238917</v>
       </c>
     </row>
     <row r="137">
@@ -1536,7 +1536,7 @@
         <v>44851</v>
       </c>
       <c r="B137" t="n">
-        <v>106808821.9725397</v>
+        <v>105128753.885241</v>
       </c>
     </row>
     <row r="138">
@@ -1544,7 +1544,7 @@
         <v>44852</v>
       </c>
       <c r="B138" t="n">
-        <v>106973619.7305948</v>
+        <v>105463017.5743315</v>
       </c>
     </row>
     <row r="139">
@@ -1552,7 +1552,7 @@
         <v>44853</v>
       </c>
       <c r="B139" t="n">
-        <v>106903338.7639318</v>
+        <v>105281715.3602648</v>
       </c>
     </row>
     <row r="140">
@@ -1560,7 +1560,7 @@
         <v>44854</v>
       </c>
       <c r="B140" t="n">
-        <v>106749547.1039763</v>
+        <v>105019015.1899957</v>
       </c>
     </row>
     <row r="141">
@@ -1568,7 +1568,7 @@
         <v>44855</v>
       </c>
       <c r="B141" t="n">
-        <v>107012425.1421675</v>
+        <v>105658633.3111417</v>
       </c>
     </row>
     <row r="142">
@@ -1576,7 +1576,7 @@
         <v>44858</v>
       </c>
       <c r="B142" t="n">
-        <v>107192535.6387866</v>
+        <v>106067760.9330975</v>
       </c>
     </row>
     <row r="143">
@@ -1584,7 +1584,7 @@
         <v>44859</v>
       </c>
       <c r="B143" t="n">
-        <v>107433158.2563816</v>
+        <v>106639829.9633727</v>
       </c>
     </row>
     <row r="144">
@@ -1592,7 +1592,7 @@
         <v>44860</v>
       </c>
       <c r="B144" t="n">
-        <v>107509992.555939</v>
+        <v>106701639.8588661</v>
       </c>
     </row>
     <row r="145">
@@ -1600,7 +1600,7 @@
         <v>44861</v>
       </c>
       <c r="B145" t="n">
-        <v>107619928.5824921</v>
+        <v>106849822.2573735</v>
       </c>
     </row>
     <row r="146">
@@ -1608,7 +1608,7 @@
         <v>44862</v>
       </c>
       <c r="B146" t="n">
-        <v>108023346.2725669</v>
+        <v>107651617.9377089</v>
       </c>
     </row>
     <row r="147">
@@ -1616,7 +1616,7 @@
         <v>44865</v>
       </c>
       <c r="B147" t="n">
-        <v>107962398.0165394</v>
+        <v>107486716.3626242</v>
       </c>
     </row>
     <row r="148">
@@ -1624,7 +1624,7 @@
         <v>44866</v>
       </c>
       <c r="B148" t="n">
-        <v>108023434.382696</v>
+        <v>107670592.9300181</v>
       </c>
     </row>
     <row r="149">
@@ -1632,7 +1632,7 @@
         <v>44867</v>
       </c>
       <c r="B149" t="n">
-        <v>107791290.7442782</v>
+        <v>107072986.7714338</v>
       </c>
     </row>
     <row r="150">
@@ -1640,7 +1640,7 @@
         <v>44868</v>
       </c>
       <c r="B150" t="n">
-        <v>107784971.8266159</v>
+        <v>106940766.8006386</v>
       </c>
     </row>
     <row r="151">
@@ -1648,7 +1648,7 @@
         <v>44869</v>
       </c>
       <c r="B151" t="n">
-        <v>107989997.4192548</v>
+        <v>107484665.6113055</v>
       </c>
     </row>
     <row r="152">
@@ -1656,7 +1656,7 @@
         <v>44872</v>
       </c>
       <c r="B152" t="n">
-        <v>108200299.6726794</v>
+        <v>108003833.9135055</v>
       </c>
     </row>
     <row r="153">
@@ -1664,7 +1664,7 @@
         <v>44873</v>
       </c>
       <c r="B153" t="n">
-        <v>108281259.3486378</v>
+        <v>108279108.176877</v>
       </c>
     </row>
     <row r="154">
@@ -1672,7 +1672,7 @@
         <v>44874</v>
       </c>
       <c r="B154" t="n">
-        <v>108099465.1538644</v>
+        <v>107936594.6614224</v>
       </c>
     </row>
     <row r="155">
@@ -1680,7 +1680,7 @@
         <v>44875</v>
       </c>
       <c r="B155" t="n">
-        <v>108905319.776947</v>
+        <v>109871121.5952874</v>
       </c>
     </row>
     <row r="156">
@@ -1688,7 +1688,7 @@
         <v>44876</v>
       </c>
       <c r="B156" t="n">
-        <v>109121747.7228962</v>
+        <v>110375177.2027769</v>
       </c>
     </row>
     <row r="157">
@@ -1696,7 +1696,7 @@
         <v>44879</v>
       </c>
       <c r="B157" t="n">
-        <v>108975950.642766</v>
+        <v>110055770.7053715</v>
       </c>
     </row>
     <row r="158">
@@ -1704,7 +1704,7 @@
         <v>44880</v>
       </c>
       <c r="B158" t="n">
-        <v>109139392.1209201</v>
+        <v>110419628.2348315</v>
       </c>
     </row>
     <row r="159">
@@ -1712,7 +1712,7 @@
         <v>44881</v>
       </c>
       <c r="B159" t="n">
-        <v>109018365.5903195</v>
+        <v>110082954.8228719</v>
       </c>
     </row>
     <row r="160">
@@ -1720,7 +1720,7 @@
         <v>44882</v>
       </c>
       <c r="B160" t="n">
-        <v>108888551.1164725</v>
+        <v>109872784.9454561</v>
       </c>
     </row>
     <row r="161">
@@ -1728,7 +1728,7 @@
         <v>44883</v>
       </c>
       <c r="B161" t="n">
-        <v>108959790.1167401</v>
+        <v>110011206.653635</v>
       </c>
     </row>
     <row r="162">
@@ -1736,7 +1736,7 @@
         <v>44886</v>
       </c>
       <c r="B162" t="n">
-        <v>108941923.6430765</v>
+        <v>109933656.2308932</v>
       </c>
     </row>
     <row r="163">
@@ -1744,7 +1744,7 @@
         <v>44887</v>
       </c>
       <c r="B163" t="n">
-        <v>109094733.8197211</v>
+        <v>110297249.586918</v>
       </c>
     </row>
     <row r="164">
@@ -1752,7 +1752,7 @@
         <v>44888</v>
       </c>
       <c r="B164" t="n">
-        <v>109202748.6512015</v>
+        <v>110520297.637962</v>
       </c>
     </row>
     <row r="165">
@@ -1760,7 +1760,7 @@
         <v>44890</v>
       </c>
       <c r="B165" t="n">
-        <v>109234802.5131109</v>
+        <v>110552989.3410925</v>
       </c>
     </row>
     <row r="166">
@@ -1768,7 +1768,7 @@
         <v>44893</v>
       </c>
       <c r="B166" t="n">
-        <v>109015193.8651397</v>
+        <v>110052383.6683305</v>
       </c>
     </row>
     <row r="167">
@@ -1776,7 +1776,7 @@
         <v>44894</v>
       </c>
       <c r="B167" t="n">
-        <v>109030390.6347759</v>
+        <v>110016918.5951277</v>
       </c>
     </row>
     <row r="168">
@@ -1784,7 +1784,7 @@
         <v>44895</v>
       </c>
       <c r="B168" t="n">
-        <v>109493283.7950728</v>
+        <v>111036202.8501965</v>
       </c>
     </row>
     <row r="169">
@@ -1792,7 +1792,7 @@
         <v>44896</v>
       </c>
       <c r="B169" t="n">
-        <v>109584260.1615871</v>
+        <v>111225291.25766</v>
       </c>
     </row>
     <row r="170">
@@ -1800,7 +1800,7 @@
         <v>44897</v>
       </c>
       <c r="B170" t="n">
-        <v>109591694.6361936</v>
+        <v>111187339.9412876</v>
       </c>
     </row>
     <row r="171">
@@ -1808,7 +1808,7 @@
         <v>44900</v>
       </c>
       <c r="B171" t="n">
-        <v>109405104.0705048</v>
+        <v>110741789.1725538</v>
       </c>
     </row>
     <row r="172">
@@ -1816,7 +1816,7 @@
         <v>44901</v>
       </c>
       <c r="B172" t="n">
-        <v>109293586.960014</v>
+        <v>110452465.6958483</v>
       </c>
     </row>
     <row r="173">
@@ -1824,7 +1824,7 @@
         <v>44902</v>
       </c>
       <c r="B173" t="n">
-        <v>109329689.9598915</v>
+        <v>110515514.6931435</v>
       </c>
     </row>
     <row r="174">
@@ -1832,7 +1832,7 @@
         <v>44903</v>
       </c>
       <c r="B174" t="n">
-        <v>109484092.4699854</v>
+        <v>110835059.8765988</v>
       </c>
     </row>
     <row r="175">
@@ -1840,7 +1840,7 @@
         <v>44904</v>
       </c>
       <c r="B175" t="n">
-        <v>109427789.3052651</v>
+        <v>110710406.49505</v>
       </c>
     </row>
     <row r="176">
@@ -1848,7 +1848,7 @@
         <v>44907</v>
       </c>
       <c r="B176" t="n">
-        <v>109611002.8102963</v>
+        <v>111098904.5448511</v>
       </c>
     </row>
     <row r="177">
@@ -1856,7 +1856,7 @@
         <v>44908</v>
       </c>
       <c r="B177" t="n">
-        <v>109789161.2357399</v>
+        <v>111388825.6603076</v>
       </c>
     </row>
     <row r="178">
@@ -1864,7 +1864,7 @@
         <v>44909</v>
       </c>
       <c r="B178" t="n">
-        <v>109710924.8124476</v>
+        <v>111252804.0720785</v>
       </c>
     </row>
     <row r="179">
@@ -1872,7 +1872,7 @@
         <v>44910</v>
       </c>
       <c r="B179" t="n">
-        <v>109411066.6934242</v>
+        <v>110652088.9904811</v>
       </c>
     </row>
     <row r="180">
@@ -1880,7 +1880,7 @@
         <v>44911</v>
       </c>
       <c r="B180" t="n">
-        <v>109304464.0861712</v>
+        <v>110455011.5132974</v>
       </c>
     </row>
     <row r="181">
@@ -1888,7 +1888,7 @@
         <v>44914</v>
       </c>
       <c r="B181" t="n">
-        <v>109198647.7033499</v>
+        <v>110233717.0843704</v>
       </c>
     </row>
     <row r="182">
@@ -1896,7 +1896,7 @@
         <v>44915</v>
       </c>
       <c r="B182" t="n">
-        <v>109224395.1574797</v>
+        <v>110283651.2863836</v>
       </c>
     </row>
     <row r="183">
@@ -1904,7 +1904,7 @@
         <v>44916</v>
       </c>
       <c r="B183" t="n">
-        <v>109391662.3961231</v>
+        <v>110561736.7382942</v>
       </c>
     </row>
     <row r="184">
@@ -1912,7 +1912,7 @@
         <v>44917</v>
       </c>
       <c r="B184" t="n">
-        <v>109274009.03402</v>
+        <v>110264232.0831372</v>
       </c>
     </row>
     <row r="185">
@@ -1920,7 +1920,7 @@
         <v>44918</v>
       </c>
       <c r="B185" t="n">
-        <v>109306596.2836822</v>
+        <v>110321445.2851723</v>
       </c>
     </row>
     <row r="186">
@@ -1928,7 +1928,7 @@
         <v>44922</v>
       </c>
       <c r="B186" t="n">
-        <v>109305832.7006174</v>
+        <v>110310900.9547761</v>
       </c>
     </row>
     <row r="187">
@@ -1936,7 +1936,7 @@
         <v>44923</v>
       </c>
       <c r="B187" t="n">
-        <v>109201323.4336851</v>
+        <v>110098891.7578642</v>
       </c>
     </row>
     <row r="188">
@@ -1944,7 +1944,7 @@
         <v>44924</v>
       </c>
       <c r="B188" t="n">
-        <v>109445849.8934718</v>
+        <v>110572813.1260797</v>
       </c>
     </row>
     <row r="189">
@@ -1952,7 +1952,7 @@
         <v>44925</v>
       </c>
       <c r="B189" t="n">
-        <v>109393402.0055647</v>
+        <v>110472407.6223794</v>
       </c>
     </row>
     <row r="190">
@@ -1960,7 +1960,7 @@
         <v>44929</v>
       </c>
       <c r="B190" t="n">
-        <v>109410517.346109</v>
+        <v>110491806.5063772</v>
       </c>
     </row>
     <row r="191">
@@ -1968,7 +1968,7 @@
         <v>44930</v>
       </c>
       <c r="B191" t="n">
-        <v>109613284.8512464</v>
+        <v>110790351.8610192</v>
       </c>
     </row>
     <row r="192">
@@ -1976,7 +1976,7 @@
         <v>44931</v>
       </c>
       <c r="B192" t="n">
-        <v>109421489.6883317</v>
+        <v>110407469.4904792</v>
       </c>
     </row>
     <row r="193">
@@ -1984,7 +1984,7 @@
         <v>44932</v>
       </c>
       <c r="B193" t="n">
-        <v>109714361.5816131</v>
+        <v>110891000.069913</v>
       </c>
     </row>
     <row r="194">
@@ -1992,7 +1992,7 @@
         <v>44935</v>
       </c>
       <c r="B194" t="n">
-        <v>109793681.4928856</v>
+        <v>111073167.2691006</v>
       </c>
     </row>
     <row r="195">
@@ -2000,7 +2000,7 @@
         <v>44936</v>
       </c>
       <c r="B195" t="n">
-        <v>109890202.2546385</v>
+        <v>111203930.9463119</v>
       </c>
     </row>
     <row r="196">
@@ -2008,7 +2008,7 @@
         <v>44937</v>
       </c>
       <c r="B196" t="n">
-        <v>110007166.2820755</v>
+        <v>111465040.9637184</v>
       </c>
     </row>
     <row r="197">
@@ -2016,7 +2016,7 @@
         <v>44938</v>
       </c>
       <c r="B197" t="n">
-        <v>110035011.8036959</v>
+        <v>111499668.5890843</v>
       </c>
     </row>
     <row r="198">
@@ -2024,7 +2024,7 @@
         <v>44939</v>
       </c>
       <c r="B198" t="n">
-        <v>110090938.4313534</v>
+        <v>111582246.1281141</v>
       </c>
     </row>
     <row r="199">
@@ -2032,7 +2032,7 @@
         <v>44943</v>
       </c>
       <c r="B199" t="n">
-        <v>110063512.7361352</v>
+        <v>111540850.9821853</v>
       </c>
     </row>
     <row r="200">
@@ -2040,7 +2040,7 @@
         <v>44944</v>
       </c>
       <c r="B200" t="n">
-        <v>109978044.4724456</v>
+        <v>111371709.7018723</v>
       </c>
     </row>
     <row r="201">
@@ -2048,7 +2048,7 @@
         <v>44945</v>
       </c>
       <c r="B201" t="n">
-        <v>109902654.9705985</v>
+        <v>111191304.1105841</v>
       </c>
     </row>
     <row r="202">
@@ -2056,7 +2056,7 @@
         <v>44946</v>
       </c>
       <c r="B202" t="n">
-        <v>110110320.8117252</v>
+        <v>111612907.8081364</v>
       </c>
     </row>
     <row r="203">
@@ -2064,7 +2064,7 @@
         <v>44949</v>
       </c>
       <c r="B203" t="n">
-        <v>110283836.5506659</v>
+        <v>111958721.9278901</v>
       </c>
     </row>
     <row r="204">
@@ -2072,7 +2072,7 @@
         <v>44950</v>
       </c>
       <c r="B204" t="n">
-        <v>110233920.0860879</v>
+        <v>111853495.0211188</v>
       </c>
     </row>
     <row r="205">
@@ -2080,7 +2080,7 @@
         <v>44951</v>
       </c>
       <c r="B205" t="n">
-        <v>110238462.2150283</v>
+        <v>111877922.9044422</v>
       </c>
     </row>
     <row r="206">
@@ -2088,7 +2088,7 @@
         <v>44952</v>
       </c>
       <c r="B206" t="n">
-        <v>110400846.8222462</v>
+        <v>112185816.0071761</v>
       </c>
     </row>
     <row r="207">
@@ -2096,7 +2096,7 @@
         <v>44953</v>
       </c>
       <c r="B207" t="n">
-        <v>110417562.1471636</v>
+        <v>112207623.6606028</v>
       </c>
     </row>
     <row r="208">
@@ -2104,7 +2104,7 @@
         <v>44956</v>
       </c>
       <c r="B208" t="n">
-        <v>110290952.9072586</v>
+        <v>111974299.0867911</v>
       </c>
     </row>
     <row r="209">
@@ -2112,7 +2112,7 @@
         <v>44957</v>
       </c>
       <c r="B209" t="n">
-        <v>110462655.4157991</v>
+        <v>112333311.619277</v>
       </c>
     </row>
     <row r="210">
@@ -2120,7 +2120,7 @@
         <v>44958</v>
       </c>
       <c r="B210" t="n">
-        <v>110724492.0871944</v>
+        <v>112802062.4424583</v>
       </c>
     </row>
     <row r="211">
@@ -2128,7 +2128,7 @@
         <v>44959</v>
       </c>
       <c r="B211" t="n">
-        <v>110888925.7731289</v>
+        <v>113145131.9017535</v>
       </c>
     </row>
     <row r="212">
@@ -2136,7 +2136,7 @@
         <v>44960</v>
       </c>
       <c r="B212" t="n">
-        <v>110792823.8472399</v>
+        <v>112929894.8329479</v>
       </c>
     </row>
     <row r="213">
@@ -2144,7 +2144,7 @@
         <v>44963</v>
       </c>
       <c r="B213" t="n">
-        <v>110706613.4150706</v>
+        <v>112754751.5043607</v>
       </c>
     </row>
     <row r="214">
@@ -2152,7 +2152,7 @@
         <v>44964</v>
       </c>
       <c r="B214" t="n">
-        <v>110846503.4634092</v>
+        <v>112995763.8948606</v>
       </c>
     </row>
     <row r="215">
@@ -2160,7 +2160,7 @@
         <v>44965</v>
       </c>
       <c r="B215" t="n">
-        <v>110755753.4828168</v>
+        <v>112809307.4269514</v>
       </c>
     </row>
     <row r="216">
@@ -2168,7 +2168,7 @@
         <v>44966</v>
       </c>
       <c r="B216" t="n">
-        <v>110711717.4698902</v>
+        <v>112751254.6028973</v>
       </c>
     </row>
     <row r="217">
@@ -2176,7 +2176,7 @@
         <v>44967</v>
       </c>
       <c r="B217" t="n">
-        <v>110712619.3552533</v>
+        <v>112739736.7110318</v>
       </c>
     </row>
     <row r="218">
@@ -2184,7 +2184,7 @@
         <v>44970</v>
       </c>
       <c r="B218" t="n">
-        <v>110819892.253282</v>
+        <v>112926414.6188868</v>
       </c>
     </row>
     <row r="219">
@@ -2192,7 +2192,7 @@
         <v>44971</v>
       </c>
       <c r="B219" t="n">
-        <v>110845836.8994001</v>
+        <v>112981704.0834942</v>
       </c>
     </row>
     <row r="220">
@@ -2200,7 +2200,7 @@
         <v>44972</v>
       </c>
       <c r="B220" t="n">
-        <v>110937500.0996635</v>
+        <v>113104129.7402</v>
       </c>
     </row>
     <row r="221">
@@ -2208,7 +2208,7 @@
         <v>44973</v>
       </c>
       <c r="B221" t="n">
-        <v>110882328.1735839</v>
+        <v>112965715.9961187</v>
       </c>
     </row>
     <row r="222">
@@ -2216,7 +2216,7 @@
         <v>44974</v>
       </c>
       <c r="B222" t="n">
-        <v>110866525.2125519</v>
+        <v>112923532.1665906</v>
       </c>
     </row>
     <row r="223">
@@ -2224,7 +2224,7 @@
         <v>44978</v>
       </c>
       <c r="B223" t="n">
-        <v>110700404.9994069</v>
+        <v>112600894.9375412</v>
       </c>
     </row>
     <row r="224">
@@ -2232,7 +2232,7 @@
         <v>44979</v>
       </c>
       <c r="B224" t="n">
-        <v>110705801.3102615</v>
+        <v>112639027.5687909</v>
       </c>
     </row>
     <row r="225">
@@ -2240,7 +2240,7 @@
         <v>44980</v>
       </c>
       <c r="B225" t="n">
-        <v>110867893.2633123</v>
+        <v>112794482.8587715</v>
       </c>
     </row>
     <row r="226">
@@ -2248,7 +2248,7 @@
         <v>44981</v>
       </c>
       <c r="B226" t="n">
-        <v>110803912.4723627</v>
+        <v>112658933.7859955</v>
       </c>
     </row>
     <row r="227">
@@ -2256,7 +2256,7 @@
         <v>44984</v>
       </c>
       <c r="B227" t="n">
-        <v>110836364.3469478</v>
+        <v>112712544.6083747</v>
       </c>
     </row>
     <row r="228">
@@ -2264,7 +2264,7 @@
         <v>44985</v>
       </c>
       <c r="B228" t="n">
-        <v>110844626.7673275</v>
+        <v>112723859.9345214</v>
       </c>
     </row>
     <row r="229">
@@ -2272,7 +2272,7 @@
         <v>44986</v>
       </c>
       <c r="B229" t="n">
-        <v>110810643.2724279</v>
+        <v>112688037.0684709</v>
       </c>
     </row>
     <row r="230">
@@ -2280,7 +2280,7 @@
         <v>44987</v>
       </c>
       <c r="B230" t="n">
-        <v>110902622.4822309</v>
+        <v>112818655.4153814</v>
       </c>
     </row>
     <row r="231">
@@ -2288,7 +2288,7 @@
         <v>44988</v>
       </c>
       <c r="B231" t="n">
-        <v>111003829.5517833</v>
+        <v>113000903.925346</v>
       </c>
     </row>
     <row r="232">
@@ -2296,7 +2296,7 @@
         <v>44991</v>
       </c>
       <c r="B232" t="n">
-        <v>110982967.1443542</v>
+        <v>112959572.274079</v>
       </c>
     </row>
     <row r="233">
@@ -2304,7 +2304,7 @@
         <v>44992</v>
       </c>
       <c r="B233" t="n">
-        <v>110891569.5907224</v>
+        <v>112806529.3311582</v>
       </c>
     </row>
     <row r="234">
@@ -2312,7 +2312,7 @@
         <v>44993</v>
       </c>
       <c r="B234" t="n">
-        <v>110914939.8822645</v>
+        <v>112861754.5499887</v>
       </c>
     </row>
     <row r="235">
@@ -2320,7 +2320,7 @@
         <v>44994</v>
       </c>
       <c r="B235" t="n">
-        <v>110846034.0645839</v>
+        <v>112694320.8417361</v>
       </c>
     </row>
     <row r="236">
@@ -2328,7 +2328,7 @@
         <v>44995</v>
       </c>
       <c r="B236" t="n">
-        <v>110735096.3585882</v>
+        <v>112479187.6677325</v>
       </c>
     </row>
     <row r="237">
@@ -2336,7 +2336,7 @@
         <v>44998</v>
       </c>
       <c r="B237" t="n">
-        <v>110759464.9145944</v>
+        <v>112483603.5351538</v>
       </c>
     </row>
     <row r="238">
@@ -2344,7 +2344,7 @@
         <v>44999</v>
       </c>
       <c r="B238" t="n">
-        <v>110856288.0243663</v>
+        <v>112647746.5718832</v>
       </c>
     </row>
     <row r="239">
@@ -2352,7 +2352,7 @@
         <v>45000</v>
       </c>
       <c r="B239" t="n">
-        <v>110804924.8590978</v>
+        <v>112549584.7318087</v>
       </c>
     </row>
     <row r="240">
@@ -2360,7 +2360,7 @@
         <v>45001</v>
       </c>
       <c r="B240" t="n">
-        <v>110923702.3958558</v>
+        <v>112779374.1514546</v>
       </c>
     </row>
     <row r="241">
@@ -2368,7 +2368,7 @@
         <v>45002</v>
       </c>
       <c r="B241" t="n">
-        <v>110888045.5691232</v>
+        <v>112645895.3263374</v>
       </c>
     </row>
     <row r="242">
@@ -2376,7 +2376,7 @@
         <v>45005</v>
       </c>
       <c r="B242" t="n">
-        <v>110945239.2740164</v>
+        <v>112769307.391746</v>
       </c>
     </row>
     <row r="243">
@@ -2384,7 +2384,7 @@
         <v>45006</v>
       </c>
       <c r="B243" t="n">
-        <v>111002216.0098144</v>
+        <v>112953695.0083318</v>
       </c>
     </row>
     <row r="244">
@@ -2392,7 +2392,7 @@
         <v>45007</v>
       </c>
       <c r="B244" t="n">
-        <v>110903473.4604488</v>
+        <v>112711504.6559708</v>
       </c>
     </row>
     <row r="245">
@@ -2400,7 +2400,7 @@
         <v>45008</v>
       </c>
       <c r="B245" t="n">
-        <v>110953095.0565725</v>
+        <v>112752334.5392837</v>
       </c>
     </row>
     <row r="246">
@@ -2408,7 +2408,7 @@
         <v>45009</v>
       </c>
       <c r="B246" t="n">
-        <v>111011241.0012422</v>
+        <v>112835137.1687142</v>
       </c>
     </row>
     <row r="247">
@@ -2416,7 +2416,7 @@
         <v>45012</v>
       </c>
       <c r="B247" t="n">
-        <v>111051936.9056709</v>
+        <v>112924677.2120099</v>
       </c>
     </row>
     <row r="248">
@@ -2424,7 +2424,7 @@
         <v>45013</v>
       </c>
       <c r="B248" t="n">
-        <v>111066644.0382733</v>
+        <v>112947766.4816988</v>
       </c>
     </row>
     <row r="249">
@@ -2432,7 +2432,7 @@
         <v>45014</v>
       </c>
       <c r="B249" t="n">
-        <v>111190163.7352171</v>
+        <v>113159308.6301848</v>
       </c>
     </row>
     <row r="250">
@@ -2440,7 +2440,7 @@
         <v>45015</v>
       </c>
       <c r="B250" t="n">
-        <v>111234370.4650392</v>
+        <v>113234370.6266873</v>
       </c>
     </row>
     <row r="251">
@@ -2448,7 +2448,7 @@
         <v>45016</v>
       </c>
       <c r="B251" t="n">
-        <v>111325415.9614929</v>
+        <v>113424147.2479999</v>
       </c>
     </row>
     <row r="252">
@@ -2456,7 +2456,7 @@
         <v>45019</v>
       </c>
       <c r="B252" t="n">
-        <v>111322779.0482527</v>
+        <v>113410031.0257887</v>
       </c>
     </row>
     <row r="253">
@@ -2464,7 +2464,7 @@
         <v>45020</v>
       </c>
       <c r="B253" t="n">
-        <v>111282482.4406393</v>
+        <v>113270619.3768803</v>
       </c>
     </row>
     <row r="254">
@@ -2472,7 +2472,7 @@
         <v>45021</v>
       </c>
       <c r="B254" t="n">
-        <v>111259247.9385405</v>
+        <v>113227628.3948306</v>
       </c>
     </row>
     <row r="255">
@@ -2480,7 +2480,7 @@
         <v>45022</v>
       </c>
       <c r="B255" t="n">
-        <v>111288064.3688292</v>
+        <v>113264992.1793895</v>
       </c>
     </row>
     <row r="256">
@@ -2488,7 +2488,7 @@
         <v>45026</v>
       </c>
       <c r="B256" t="n">
-        <v>111313730.0124137</v>
+        <v>113320323.9213026</v>
       </c>
     </row>
     <row r="257">
@@ -2496,7 +2496,7 @@
         <v>45027</v>
       </c>
       <c r="B257" t="n">
-        <v>111348281.4393586</v>
+        <v>113429450.31848</v>
       </c>
     </row>
     <row r="258">
@@ -2504,7 +2504,7 @@
         <v>45028</v>
       </c>
       <c r="B258" t="n">
-        <v>111347515.8258736</v>
+        <v>113392343.5190048</v>
       </c>
     </row>
     <row r="259">
@@ -2512,7 +2512,7 @@
         <v>45029</v>
       </c>
       <c r="B259" t="n">
-        <v>111387103.3310772</v>
+        <v>113494563.3149043</v>
       </c>
     </row>
     <row r="260">
@@ -2520,7 +2520,7 @@
         <v>45030</v>
       </c>
       <c r="B260" t="n">
-        <v>111361873.5017775</v>
+        <v>113453375.1743427</v>
       </c>
     </row>
     <row r="261">
@@ -2528,7 +2528,7 @@
         <v>45033</v>
       </c>
       <c r="B261" t="n">
-        <v>111421185.6062565</v>
+        <v>113558470.258134</v>
       </c>
     </row>
     <row r="262">
@@ -2536,7 +2536,7 @@
         <v>45034</v>
       </c>
       <c r="B262" t="n">
-        <v>111422161.0236253</v>
+        <v>113555777.5807105</v>
       </c>
     </row>
     <row r="263">
@@ -2544,7 +2544,7 @@
         <v>45035</v>
       </c>
       <c r="B263" t="n">
-        <v>111450043.5821644</v>
+        <v>113595960.1634602</v>
       </c>
     </row>
     <row r="264">
@@ -2552,7 +2552,7 @@
         <v>45036</v>
       </c>
       <c r="B264" t="n">
-        <v>111412046.1415166</v>
+        <v>113519759.468296</v>
       </c>
     </row>
     <row r="265">
@@ -2560,7 +2560,7 @@
         <v>45037</v>
       </c>
       <c r="B265" t="n">
-        <v>111416657.7977308</v>
+        <v>113499317.5564977</v>
       </c>
     </row>
     <row r="266">
@@ -2568,7 +2568,7 @@
         <v>45040</v>
       </c>
       <c r="B266" t="n">
-        <v>111428022.9215538</v>
+        <v>113519946.4786142</v>
       </c>
     </row>
     <row r="267">
@@ -2576,7 +2576,7 @@
         <v>45041</v>
       </c>
       <c r="B267" t="n">
-        <v>111346534.3617587</v>
+        <v>113282887.3405096</v>
       </c>
     </row>
     <row r="268">
@@ -2584,7 +2584,7 @@
         <v>45042</v>
       </c>
       <c r="B268" t="n">
-        <v>111337607.1010426</v>
+        <v>113195013.6312882</v>
       </c>
     </row>
     <row r="269">
@@ -2592,7 +2592,7 @@
         <v>45043</v>
       </c>
       <c r="B269" t="n">
-        <v>111446174.3558268</v>
+        <v>113421499.873037</v>
       </c>
     </row>
     <row r="270">
@@ -2600,7 +2600,7 @@
         <v>45044</v>
       </c>
       <c r="B270" t="n">
-        <v>111522059.7786347</v>
+        <v>113562263.3496178</v>
       </c>
     </row>
     <row r="271">
@@ -2608,7 +2608,7 @@
         <v>45047</v>
       </c>
       <c r="B271" t="n">
-        <v>111535924.2232752</v>
+        <v>113579279.5705626</v>
       </c>
     </row>
     <row r="272">
@@ -2616,7 +2616,7 @@
         <v>45048</v>
       </c>
       <c r="B272" t="n">
-        <v>111499850.0084561</v>
+        <v>113426982.3302008</v>
       </c>
     </row>
     <row r="273">
@@ -2624,7 +2624,7 @@
         <v>45049</v>
       </c>
       <c r="B273" t="n">
-        <v>111509167.3207228</v>
+        <v>113417618.5538604</v>
       </c>
     </row>
     <row r="274">
@@ -2632,7 +2632,7 @@
         <v>45050</v>
       </c>
       <c r="B274" t="n">
-        <v>111465063.9626055</v>
+        <v>113282840.8143179</v>
       </c>
     </row>
     <row r="275">
@@ -2640,7 +2640,7 @@
         <v>45051</v>
       </c>
       <c r="B275" t="n">
-        <v>111560546.998178</v>
+        <v>113496185.6400624</v>
       </c>
     </row>
     <row r="276">
@@ -2648,7 +2648,7 @@
         <v>45054</v>
       </c>
       <c r="B276" t="n">
-        <v>111553344.7312239</v>
+        <v>113477880.9172754</v>
       </c>
     </row>
     <row r="277">
@@ -2656,7 +2656,7 @@
         <v>45055</v>
       </c>
       <c r="B277" t="n">
-        <v>111554547.7344461</v>
+        <v>113455026.359594</v>
       </c>
     </row>
     <row r="278">
@@ -2664,7 +2664,7 @@
         <v>45056</v>
       </c>
       <c r="B278" t="n">
-        <v>111568329.3956427</v>
+        <v>113447140.6726873</v>
       </c>
     </row>
     <row r="279">
@@ -2672,7 +2672,7 @@
         <v>45057</v>
       </c>
       <c r="B279" t="n">
-        <v>111560792.6392905</v>
+        <v>113414319.1796034</v>
       </c>
     </row>
     <row r="280">
@@ -2680,7 +2680,7 @@
         <v>45058</v>
       </c>
       <c r="B280" t="n">
-        <v>111570784.5437372</v>
+        <v>113410642.2012422</v>
       </c>
     </row>
     <row r="281">
@@ -2688,7 +2688,7 @@
         <v>45061</v>
       </c>
       <c r="B281" t="n">
-        <v>111629470.4290176</v>
+        <v>113518290.9870788</v>
       </c>
     </row>
     <row r="282">
@@ -2696,7 +2696,7 @@
         <v>45062</v>
       </c>
       <c r="B282" t="n">
-        <v>111568823.5407723</v>
+        <v>113405277.7439649</v>
       </c>
     </row>
     <row r="283">
@@ -2704,7 +2704,7 @@
         <v>45063</v>
       </c>
       <c r="B283" t="n">
-        <v>111680469.9151511</v>
+        <v>113624520.4010765</v>
       </c>
     </row>
     <row r="284">
@@ -2712,7 +2712,7 @@
         <v>45064</v>
       </c>
       <c r="B284" t="n">
-        <v>111737895.9881584</v>
+        <v>113719244.3156102</v>
       </c>
     </row>
     <row r="285">
@@ -2720,7 +2720,7 @@
         <v>45065</v>
       </c>
       <c r="B285" t="n">
-        <v>111726704.9124415</v>
+        <v>113701242.2770884</v>
       </c>
     </row>
     <row r="286">
@@ -2728,7 +2728,7 @@
         <v>45068</v>
       </c>
       <c r="B286" t="n">
-        <v>111768772.7441712</v>
+        <v>113781492.704928</v>
       </c>
     </row>
     <row r="287">
@@ -2736,7 +2736,7 @@
         <v>45069</v>
       </c>
       <c r="B287" t="n">
-        <v>111720428.1896514</v>
+        <v>113720151.4935056</v>
       </c>
     </row>
     <row r="288">
@@ -2744,7 +2744,7 @@
         <v>45070</v>
       </c>
       <c r="B288" t="n">
-        <v>111648691.5286711</v>
+        <v>113565393.7553897</v>
       </c>
     </row>
     <row r="289">
@@ -2752,7 +2752,7 @@
         <v>45071</v>
       </c>
       <c r="B289" t="n">
-        <v>111670158.5466929</v>
+        <v>113596341.1228706</v>
       </c>
     </row>
     <row r="290">
@@ -2760,7 +2760,7 @@
         <v>45072</v>
       </c>
       <c r="B290" t="n">
-        <v>111727663.9683361</v>
+        <v>113711956.5751214</v>
       </c>
     </row>
     <row r="291">
@@ -2768,7 +2768,7 @@
         <v>45076</v>
       </c>
       <c r="B291" t="n">
-        <v>111726114.8645228</v>
+        <v>113696620.2057922</v>
       </c>
     </row>
     <row r="292">
@@ -2776,7 +2776,7 @@
         <v>45077</v>
       </c>
       <c r="B292" t="n">
-        <v>111682257.9980634</v>
+        <v>113590704.2350759</v>
       </c>
     </row>
     <row r="293">
@@ -2784,7 +2784,7 @@
         <v>45078</v>
       </c>
       <c r="B293" t="n">
-        <v>111750534.5300516</v>
+        <v>113713912.0390832</v>
       </c>
     </row>
     <row r="294">
@@ -2792,7 +2792,7 @@
         <v>45079</v>
       </c>
       <c r="B294" t="n">
-        <v>111877718.8989615</v>
+        <v>113947918.999556</v>
       </c>
     </row>
     <row r="295">
@@ -2800,7 +2800,7 @@
         <v>45082</v>
       </c>
       <c r="B295" t="n">
-        <v>111866150.9901746</v>
+        <v>113926614.9295048</v>
       </c>
     </row>
     <row r="296">
@@ -2808,7 +2808,7 @@
         <v>45083</v>
       </c>
       <c r="B296" t="n">
-        <v>111906147.7580867</v>
+        <v>114007537.3425941</v>
       </c>
     </row>
     <row r="297">
@@ -2816,7 +2816,7 @@
         <v>45084</v>
       </c>
       <c r="B297" t="n">
-        <v>111963231.0760355</v>
+        <v>114125602.9230979</v>
       </c>
     </row>
     <row r="298">
@@ -2824,7 +2824,7 @@
         <v>45085</v>
       </c>
       <c r="B298" t="n">
-        <v>111962540.6608382</v>
+        <v>114111280.2404031</v>
       </c>
     </row>
     <row r="299">
@@ -2832,7 +2832,7 @@
         <v>45086</v>
       </c>
       <c r="B299" t="n">
-        <v>111967186.1336373</v>
+        <v>114088417.3410225</v>
       </c>
     </row>
     <row r="300">
@@ -2840,7 +2840,7 @@
         <v>45089</v>
       </c>
       <c r="B300" t="n">
-        <v>112005974.7845081</v>
+        <v>114167426.8891206</v>
       </c>
     </row>
     <row r="301">
@@ -2848,7 +2848,7 @@
         <v>45090</v>
       </c>
       <c r="B301" t="n">
-        <v>112088054.3391709</v>
+        <v>114320604.1051119</v>
       </c>
     </row>
     <row r="302">
@@ -2856,7 +2856,7 @@
         <v>45091</v>
       </c>
       <c r="B302" t="n">
-        <v>112081248.9315593</v>
+        <v>114272902.3706118</v>
       </c>
     </row>
     <row r="303">
@@ -2864,7 +2864,7 @@
         <v>45092</v>
       </c>
       <c r="B303" t="n">
-        <v>112167980.0464296</v>
+        <v>114419011.8408993</v>
       </c>
     </row>
     <row r="304">
@@ -2872,7 +2872,7 @@
         <v>45093</v>
       </c>
       <c r="B304" t="n">
-        <v>112172636.784035</v>
+        <v>114436657.2248584</v>
       </c>
     </row>
     <row r="305">
@@ -2880,7 +2880,7 @@
         <v>45097</v>
       </c>
       <c r="B305" t="n">
-        <v>112134197.984322</v>
+        <v>114346467.0760209</v>
       </c>
     </row>
     <row r="306">
@@ -2888,7 +2888,7 @@
         <v>45098</v>
       </c>
       <c r="B306" t="n">
-        <v>112143878.6750345</v>
+        <v>114374990.6504074</v>
       </c>
     </row>
     <row r="307">
@@ -2896,7 +2896,7 @@
         <v>45099</v>
       </c>
       <c r="B307" t="n">
-        <v>112128100.3252866</v>
+        <v>114362399.3058273</v>
       </c>
     </row>
     <row r="308">
@@ -2904,7 +2904,7 @@
         <v>45100</v>
       </c>
       <c r="B308" t="n">
-        <v>112096275.2666946</v>
+        <v>114293999.1453956</v>
       </c>
     </row>
     <row r="309">
@@ -2912,7 +2912,7 @@
         <v>45103</v>
       </c>
       <c r="B309" t="n">
-        <v>112132897.0420478</v>
+        <v>114351931.5349953</v>
       </c>
     </row>
     <row r="310">
@@ -2920,7 +2920,7 @@
         <v>45104</v>
       </c>
       <c r="B310" t="n">
-        <v>112192882.6391558</v>
+        <v>114429612.0510011</v>
       </c>
     </row>
     <row r="311">
@@ -2928,7 +2928,7 @@
         <v>45105</v>
       </c>
       <c r="B311" t="n">
-        <v>112192933.3542695</v>
+        <v>114413626.9743215</v>
       </c>
     </row>
     <row r="312">
@@ -2936,7 +2936,7 @@
         <v>45106</v>
       </c>
       <c r="B312" t="n">
-        <v>112252828.2916231</v>
+        <v>114513282.2200775</v>
       </c>
     </row>
     <row r="313">
@@ -2944,7 +2944,7 @@
         <v>45107</v>
       </c>
       <c r="B313" t="n">
-        <v>112292176.7283654</v>
+        <v>114601487.1591117</v>
       </c>
     </row>
     <row r="314">
@@ -2952,7 +2952,7 @@
         <v>45110</v>
       </c>
       <c r="B314" t="n">
-        <v>112314979.6573668</v>
+        <v>114627648.6397851</v>
       </c>
     </row>
     <row r="315">
@@ -2960,7 +2960,7 @@
         <v>45112</v>
       </c>
       <c r="B315" t="n">
-        <v>112295564.6736337</v>
+        <v>114585120.4041344</v>
       </c>
     </row>
     <row r="316">
@@ -2968,7 +2968,7 @@
         <v>45113</v>
       </c>
       <c r="B316" t="n">
-        <v>112282538.2329091</v>
+        <v>114529443.5879886</v>
       </c>
     </row>
     <row r="317">
@@ -2976,7 +2976,7 @@
         <v>45114</v>
       </c>
       <c r="B317" t="n">
-        <v>112301908.8323918</v>
+        <v>114555165.8631517</v>
       </c>
     </row>
     <row r="318">
@@ -2984,7 +2984,7 @@
         <v>45117</v>
       </c>
       <c r="B318" t="n">
-        <v>112351061.0799666</v>
+        <v>114657566.8727264</v>
       </c>
     </row>
     <row r="319">
@@ -2992,7 +2992,7 @@
         <v>45118</v>
       </c>
       <c r="B319" t="n">
-        <v>112404372.060834</v>
+        <v>114756088.2261297</v>
       </c>
     </row>
     <row r="320">
@@ -3000,7 +3000,7 @@
         <v>45119</v>
       </c>
       <c r="B320" t="n">
-        <v>112434543.5195453</v>
+        <v>114739485.1660831</v>
       </c>
     </row>
     <row r="321">
@@ -3008,7 +3008,7 @@
         <v>45120</v>
       </c>
       <c r="B321" t="n">
-        <v>112475566.5708834</v>
+        <v>114810648.4029223</v>
       </c>
     </row>
     <row r="322">
@@ -3016,7 +3016,7 @@
         <v>45121</v>
       </c>
       <c r="B322" t="n">
-        <v>112482917.1665562</v>
+        <v>114826715.5398128</v>
       </c>
     </row>
     <row r="323">
@@ -3024,7 +3024,7 @@
         <v>45124</v>
       </c>
       <c r="B323" t="n">
-        <v>112509851.6624201</v>
+        <v>114885288.792312</v>
       </c>
     </row>
     <row r="324">
@@ -3032,7 +3032,7 @@
         <v>45125</v>
       </c>
       <c r="B324" t="n">
-        <v>112574096.7294769</v>
+        <v>115031964.700691</v>
       </c>
     </row>
     <row r="325">
@@ -3040,7 +3040,7 @@
         <v>45126</v>
       </c>
       <c r="B325" t="n">
-        <v>112617724.2198992</v>
+        <v>115164405.5428652</v>
       </c>
     </row>
     <row r="326">
@@ -3048,7 +3048,7 @@
         <v>45127</v>
       </c>
       <c r="B326" t="n">
-        <v>112630947.1567091</v>
+        <v>115189486.1115039</v>
       </c>
     </row>
     <row r="327">
@@ -3056,7 +3056,7 @@
         <v>45128</v>
       </c>
       <c r="B327" t="n">
-        <v>112659682.8828232</v>
+        <v>115211956.3858824</v>
       </c>
     </row>
     <row r="328">
@@ -3064,7 +3064,7 @@
         <v>45131</v>
       </c>
       <c r="B328" t="n">
-        <v>112696798.3916844</v>
+        <v>115271397.1840625</v>
       </c>
     </row>
     <row r="329">
@@ -3072,7 +3072,7 @@
         <v>45132</v>
       </c>
       <c r="B329" t="n">
-        <v>112691464.960999</v>
+        <v>115251332.6146236</v>
       </c>
     </row>
     <row r="330">
@@ -3080,7 +3080,7 @@
         <v>45133</v>
       </c>
       <c r="B330" t="n">
-        <v>112779729.7642592</v>
+        <v>115343211.1528214</v>
       </c>
     </row>
     <row r="331">
@@ -3088,7 +3088,7 @@
         <v>45134</v>
       </c>
       <c r="B331" t="n">
-        <v>112766845.427971</v>
+        <v>115304742.5987995</v>
       </c>
     </row>
     <row r="332">
@@ -3096,7 +3096,7 @@
         <v>45135</v>
       </c>
       <c r="B332" t="n">
-        <v>112791517.1147437</v>
+        <v>115354159.104057</v>
       </c>
     </row>
     <row r="333">
@@ -3104,7 +3104,7 @@
         <v>45138</v>
       </c>
       <c r="B333" t="n">
-        <v>112798376.3644536</v>
+        <v>115378278.2993281</v>
       </c>
     </row>
     <row r="334">
@@ -3112,7 +3112,7 @@
         <v>45139</v>
       </c>
       <c r="B334" t="n">
-        <v>112806212.5404158</v>
+        <v>115357550.3806226</v>
       </c>
     </row>
     <row r="335">
@@ -3120,7 +3120,7 @@
         <v>45140</v>
       </c>
       <c r="B335" t="n">
-        <v>112809234.3768769</v>
+        <v>115357990.7598013</v>
       </c>
     </row>
     <row r="336">
@@ -3128,7 +3128,7 @@
         <v>45141</v>
       </c>
       <c r="B336" t="n">
-        <v>112810548.8372215</v>
+        <v>115373505.5063035</v>
       </c>
     </row>
     <row r="337">
@@ -3136,7 +3136,7 @@
         <v>45142</v>
       </c>
       <c r="B337" t="n">
-        <v>112793660.9950304</v>
+        <v>115346608.5841883</v>
       </c>
     </row>
     <row r="338">
@@ -3144,7 +3144,7 @@
         <v>45145</v>
       </c>
       <c r="B338" t="n">
-        <v>112847300.533682</v>
+        <v>115443230.4567713</v>
       </c>
     </row>
     <row r="339">
@@ -3152,7 +3152,7 @@
         <v>45146</v>
       </c>
       <c r="B339" t="n">
-        <v>112840100.0817982</v>
+        <v>115400852.9368253</v>
       </c>
     </row>
     <row r="340">
@@ -3160,7 +3160,7 @@
         <v>45147</v>
       </c>
       <c r="B340" t="n">
-        <v>112812232.1361831</v>
+        <v>115323010.234027</v>
       </c>
     </row>
     <row r="341">
@@ -3168,7 +3168,7 @@
         <v>45148</v>
       </c>
       <c r="B341" t="n">
-        <v>112826074.4805252</v>
+        <v>115341339.9597046</v>
       </c>
     </row>
     <row r="342">
@@ -3176,7 +3176,7 @@
         <v>45149</v>
       </c>
       <c r="B342" t="n">
-        <v>112851097.4832516</v>
+        <v>115374121.6527087</v>
       </c>
     </row>
     <row r="343">
@@ -3184,7 +3184,7 @@
         <v>45152</v>
       </c>
       <c r="B343" t="n">
-        <v>112835953.3396823</v>
+        <v>115328307.4552532</v>
       </c>
     </row>
     <row r="344">
@@ -3192,7 +3192,7 @@
         <v>45153</v>
       </c>
       <c r="B344" t="n">
-        <v>112780983.1499685</v>
+        <v>115199749.6428263</v>
       </c>
     </row>
     <row r="345">
@@ -3200,7 +3200,7 @@
         <v>45154</v>
       </c>
       <c r="B345" t="n">
-        <v>112769470.2543216</v>
+        <v>115158857.128528</v>
       </c>
     </row>
     <row r="346">
@@ -3208,7 +3208,7 @@
         <v>45155</v>
       </c>
       <c r="B346" t="n">
-        <v>112769941.9759272</v>
+        <v>115130989.6090726</v>
       </c>
     </row>
     <row r="347">
@@ -3216,7 +3216,7 @@
         <v>45156</v>
       </c>
       <c r="B347" t="n">
-        <v>112775703.2109576</v>
+        <v>115135080.5904591</v>
       </c>
     </row>
     <row r="348">
@@ -3224,7 +3224,7 @@
         <v>45159</v>
       </c>
       <c r="B348" t="n">
-        <v>112782576.3301485</v>
+        <v>115139710.2650305</v>
       </c>
     </row>
     <row r="349">
@@ -3232,7 +3232,7 @@
         <v>45160</v>
       </c>
       <c r="B349" t="n">
-        <v>112753191.2294905</v>
+        <v>115074402.417845</v>
       </c>
     </row>
     <row r="350">
@@ -3240,7 +3240,7 @@
         <v>45161</v>
       </c>
       <c r="B350" t="n">
-        <v>112801128.2879221</v>
+        <v>115151901.7251359</v>
       </c>
     </row>
     <row r="351">
@@ -3248,7 +3248,7 @@
         <v>45162</v>
       </c>
       <c r="B351" t="n">
-        <v>112806070.6287262</v>
+        <v>115144115.2705593</v>
       </c>
     </row>
     <row r="352">
@@ -3256,7 +3256,7 @@
         <v>45163</v>
       </c>
       <c r="B352" t="n">
-        <v>112822737.6754158</v>
+        <v>115162009.1697121</v>
       </c>
     </row>
     <row r="353">
@@ -3264,7 +3264,7 @@
         <v>45166</v>
       </c>
       <c r="B353" t="n">
-        <v>112856979.4525148</v>
+        <v>115219395.5997178</v>
       </c>
     </row>
     <row r="354">
@@ -3272,7 +3272,7 @@
         <v>45167</v>
       </c>
       <c r="B354" t="n">
-        <v>112903691.986125</v>
+        <v>115311400.5040426</v>
       </c>
     </row>
     <row r="355">
@@ -3280,7 +3280,7 @@
         <v>45168</v>
       </c>
       <c r="B355" t="n">
-        <v>112920081.4030145</v>
+        <v>115329862.2688714</v>
       </c>
     </row>
     <row r="356">
@@ -3288,7 +3288,7 @@
         <v>45169</v>
       </c>
       <c r="B356" t="n">
-        <v>112935108.196242</v>
+        <v>115325424.093668</v>
       </c>
     </row>
     <row r="357">
@@ -3296,7 +3296,7 @@
         <v>45170</v>
       </c>
       <c r="B357" t="n">
-        <v>112972563.4077022</v>
+        <v>115387854.2381348</v>
       </c>
     </row>
     <row r="358">
@@ -3304,7 +3304,7 @@
         <v>45174</v>
       </c>
       <c r="B358" t="n">
-        <v>112936319.4924054</v>
+        <v>115311599.3420361</v>
       </c>
     </row>
     <row r="359">
@@ -3312,7 +3312,7 @@
         <v>45175</v>
       </c>
       <c r="B359" t="n">
-        <v>112922953.5925629</v>
+        <v>115266541.2061158</v>
       </c>
     </row>
     <row r="360">
@@ -3320,7 +3320,7 @@
         <v>45176</v>
       </c>
       <c r="B360" t="n">
-        <v>112913542.685208</v>
+        <v>115217707.2704862</v>
       </c>
     </row>
     <row r="361">
@@ -3328,7 +3328,7 @@
         <v>45177</v>
       </c>
       <c r="B361" t="n">
-        <v>112928597.7323923</v>
+        <v>115227841.766207</v>
       </c>
     </row>
     <row r="362">
@@ -3336,7 +3336,7 @@
         <v>45180</v>
       </c>
       <c r="B362" t="n">
-        <v>112952614.607538</v>
+        <v>115260670.501616</v>
       </c>
     </row>
     <row r="363">
@@ -3344,7 +3344,7 @@
         <v>45181</v>
       </c>
       <c r="B363" t="n">
-        <v>112985309.6906262</v>
+        <v>115307874.8608726</v>
       </c>
     </row>
     <row r="364">
@@ -3352,7 +3352,7 @@
         <v>45182</v>
       </c>
       <c r="B364" t="n">
-        <v>112980552.2216396</v>
+        <v>115296920.0127543</v>
       </c>
     </row>
     <row r="365">
@@ -3360,7 +3360,7 @@
         <v>45183</v>
       </c>
       <c r="B365" t="n">
-        <v>113043579.0983512</v>
+        <v>115406137.1393543</v>
       </c>
     </row>
     <row r="366">
@@ -3368,7 +3368,7 @@
         <v>45184</v>
       </c>
       <c r="B366" t="n">
-        <v>113039468.5162662</v>
+        <v>115365767.8852817</v>
       </c>
     </row>
     <row r="367">
@@ -3376,7 +3376,7 @@
         <v>45187</v>
       </c>
       <c r="B367" t="n">
-        <v>113056452.3104638</v>
+        <v>115365483.6884457</v>
       </c>
     </row>
     <row r="368">
@@ -3384,7 +3384,7 @@
         <v>45188</v>
       </c>
       <c r="B368" t="n">
-        <v>113064699.4605537</v>
+        <v>115361272.1626891</v>
       </c>
     </row>
     <row r="369">
@@ -3392,7 +3392,7 @@
         <v>45189</v>
       </c>
       <c r="B369" t="n">
-        <v>113064440.6899675</v>
+        <v>115371221.6637481</v>
       </c>
     </row>
     <row r="370">
@@ -3400,7 +3400,7 @@
         <v>45190</v>
       </c>
       <c r="B370" t="n">
-        <v>113027141.6375998</v>
+        <v>115277372.4164574</v>
       </c>
     </row>
     <row r="371">
@@ -3408,7 +3408,7 @@
         <v>45191</v>
       </c>
       <c r="B371" t="n">
-        <v>113036469.4223945</v>
+        <v>115274422.4132681</v>
       </c>
     </row>
     <row r="372">
@@ -3416,7 +3416,7 @@
         <v>45194</v>
       </c>
       <c r="B372" t="n">
-        <v>113069108.2787549</v>
+        <v>115332712.8578531</v>
       </c>
     </row>
     <row r="373">
@@ -3424,7 +3424,7 @@
         <v>45195</v>
       </c>
       <c r="B373" t="n">
-        <v>113053567.3422335</v>
+        <v>115266256.0258126</v>
       </c>
     </row>
     <row r="374">
@@ -3432,7 +3432,7 @@
         <v>45196</v>
       </c>
       <c r="B374" t="n">
-        <v>113079733.1658556</v>
+        <v>115275710.6575571</v>
       </c>
     </row>
     <row r="375">
@@ -3440,7 +3440,7 @@
         <v>45197</v>
       </c>
       <c r="B375" t="n">
-        <v>113117580.8175534</v>
+        <v>115341206.8252977</v>
       </c>
     </row>
     <row r="376">
@@ -3448,7 +3448,7 @@
         <v>45198</v>
       </c>
       <c r="B376" t="n">
-        <v>113106283.7130344</v>
+        <v>115300790.2248876</v>
       </c>
     </row>
     <row r="377">
@@ -3456,7 +3456,7 @@
         <v>45201</v>
       </c>
       <c r="B377" t="n">
-        <v>113086553.6345858</v>
+        <v>115247286.4594879</v>
       </c>
     </row>
     <row r="378">
@@ -3464,7 +3464,7 @@
         <v>45202</v>
       </c>
       <c r="B378" t="n">
-        <v>113066464.4467289</v>
+        <v>115187940.5186311</v>
       </c>
     </row>
     <row r="379">
@@ -3472,7 +3472,7 @@
         <v>45203</v>
       </c>
       <c r="B379" t="n">
-        <v>113097073.0600416</v>
+        <v>115240205.705707</v>
       </c>
     </row>
     <row r="380">
@@ -3480,7 +3480,7 @@
         <v>45204</v>
       </c>
       <c r="B380" t="n">
-        <v>113098362.6674444</v>
+        <v>115237980.4837095</v>
       </c>
     </row>
     <row r="381">
@@ -3488,7 +3488,7 @@
         <v>45205</v>
       </c>
       <c r="B381" t="n">
-        <v>113130711.6047345</v>
+        <v>115292115.3508722</v>
       </c>
     </row>
     <row r="382">
@@ -3496,7 +3496,7 @@
         <v>45208</v>
       </c>
       <c r="B382" t="n">
-        <v>113183103.3419788</v>
+        <v>115370059.5807922</v>
       </c>
     </row>
     <row r="383">
@@ -3504,7 +3504,7 @@
         <v>45209</v>
       </c>
       <c r="B383" t="n">
-        <v>113219963.5568002</v>
+        <v>115452453.1789778</v>
       </c>
     </row>
     <row r="384">
@@ -3512,7 +3512,7 @@
         <v>45210</v>
       </c>
       <c r="B384" t="n">
-        <v>113208281.8765826</v>
+        <v>115433087.1518795</v>
       </c>
     </row>
     <row r="385">
@@ -3520,7 +3520,7 @@
         <v>45211</v>
       </c>
       <c r="B385" t="n">
-        <v>113105576.4132711</v>
+        <v>115227882.761586</v>
       </c>
     </row>
     <row r="386">
@@ -3528,7 +3528,7 @@
         <v>45212</v>
       </c>
       <c r="B386" t="n">
-        <v>113201104.8357424</v>
+        <v>115329939.1274066</v>
       </c>
     </row>
     <row r="387">
@@ -3536,7 +3536,7 @@
         <v>45215</v>
       </c>
       <c r="B387" t="n">
-        <v>113310878.991971</v>
+        <v>115530295.1879437</v>
       </c>
     </row>
     <row r="388">
@@ -3544,7 +3544,7 @@
         <v>45216</v>
       </c>
       <c r="B388" t="n">
-        <v>113428899.7279485</v>
+        <v>115696061.8352708</v>
       </c>
     </row>
     <row r="389">
@@ -3552,7 +3552,7 @@
         <v>45217</v>
       </c>
       <c r="B389" t="n">
-        <v>113445404.7410936</v>
+        <v>115606424.9250966</v>
       </c>
     </row>
     <row r="390">
@@ -3560,7 +3560,7 @@
         <v>45218</v>
       </c>
       <c r="B390" t="n">
-        <v>113421901.9516965</v>
+        <v>115525232.6666464</v>
       </c>
     </row>
     <row r="391">
@@ -3568,7 +3568,7 @@
         <v>45219</v>
       </c>
       <c r="B391" t="n">
-        <v>113395915.5677411</v>
+        <v>115416283.8844717</v>
       </c>
     </row>
     <row r="392">
@@ -3576,7 +3576,7 @@
         <v>45222</v>
       </c>
       <c r="B392" t="n">
-        <v>113416622.8928161</v>
+        <v>115414498.0371273</v>
       </c>
     </row>
     <row r="393">
@@ -3584,7 +3584,7 @@
         <v>45223</v>
       </c>
       <c r="B393" t="n">
-        <v>113335960.7618599</v>
+        <v>115321236.166351</v>
       </c>
     </row>
     <row r="394">
@@ -3592,7 +3592,7 @@
         <v>45224</v>
       </c>
       <c r="B394" t="n">
-        <v>113287287.7985002</v>
+        <v>115213065.0756593</v>
       </c>
     </row>
     <row r="395">
@@ -3600,7 +3600,7 @@
         <v>45225</v>
       </c>
       <c r="B395" t="n">
-        <v>113287419.7426777</v>
+        <v>115230310.2263353</v>
       </c>
     </row>
     <row r="396">
@@ -3608,7 +3608,7 @@
         <v>45226</v>
       </c>
       <c r="B396" t="n">
-        <v>113207955.2152883</v>
+        <v>115081503.3139923</v>
       </c>
     </row>
     <row r="397">
@@ -3616,7 +3616,7 @@
         <v>45229</v>
       </c>
       <c r="B397" t="n">
-        <v>113203118.9274026</v>
+        <v>115097892.2070671</v>
       </c>
     </row>
     <row r="398">
@@ -3624,7 +3624,7 @@
         <v>45230</v>
       </c>
       <c r="B398" t="n">
-        <v>113326428.6030255</v>
+        <v>115266628.9936366</v>
       </c>
     </row>
     <row r="399">
@@ -3632,7 +3632,7 @@
         <v>45231</v>
       </c>
       <c r="B399" t="n">
-        <v>113457566.3319437</v>
+        <v>115385262.7329917</v>
       </c>
     </row>
     <row r="400">
@@ -3640,7 +3640,7 @@
         <v>45232</v>
       </c>
       <c r="B400" t="n">
-        <v>113626638.9027492</v>
+        <v>115716997.6292065</v>
       </c>
     </row>
     <row r="401">
@@ -3648,7 +3648,7 @@
         <v>45233</v>
       </c>
       <c r="B401" t="n">
-        <v>114098316.0414616</v>
+        <v>116370748.5456135</v>
       </c>
     </row>
     <row r="402">
@@ -3656,7 +3656,7 @@
         <v>45236</v>
       </c>
       <c r="B402" t="n">
-        <v>114018914.8357315</v>
+        <v>116253838.7488307</v>
       </c>
     </row>
     <row r="403">
@@ -3664,7 +3664,7 @@
         <v>45237</v>
       </c>
       <c r="B403" t="n">
-        <v>114088515.8432202</v>
+        <v>116357736.7902456</v>
       </c>
     </row>
     <row r="404">
@@ -3672,7 +3672,7 @@
         <v>45238</v>
       </c>
       <c r="B404" t="n">
-        <v>113967383.9835571</v>
+        <v>116192667.8704865</v>
       </c>
     </row>
     <row r="405">
@@ -3680,7 +3680,7 @@
         <v>45239</v>
       </c>
       <c r="B405" t="n">
-        <v>113883101.2671066</v>
+        <v>116018511.3449732</v>
       </c>
     </row>
     <row r="406">
@@ -3688,7 +3688,7 @@
         <v>45240</v>
       </c>
       <c r="B406" t="n">
-        <v>113992669.8566087</v>
+        <v>116228412.5492098</v>
       </c>
     </row>
     <row r="407">
@@ -3696,7 +3696,7 @@
         <v>45243</v>
       </c>
       <c r="B407" t="n">
-        <v>114128865.8002115</v>
+        <v>116364166.0102814</v>
       </c>
     </row>
     <row r="408">
@@ -3704,7 +3704,7 @@
         <v>45244</v>
       </c>
       <c r="B408" t="n">
-        <v>114423592.9275771</v>
+        <v>116911890.8627489</v>
       </c>
     </row>
     <row r="409">
@@ -3712,7 +3712,7 @@
         <v>45245</v>
       </c>
       <c r="B409" t="n">
-        <v>114506543.0966407</v>
+        <v>117049601.4391948</v>
       </c>
     </row>
     <row r="410">
@@ -3720,7 +3720,7 @@
         <v>45246</v>
       </c>
       <c r="B410" t="n">
-        <v>114539538.9538329</v>
+        <v>117094759.2242099</v>
       </c>
     </row>
     <row r="411">
@@ -3728,7 +3728,7 @@
         <v>45247</v>
       </c>
       <c r="B411" t="n">
-        <v>114538678.6510508</v>
+        <v>117127167.7700458</v>
       </c>
     </row>
     <row r="412">
@@ -3736,7 +3736,7 @@
         <v>45250</v>
       </c>
       <c r="B412" t="n">
-        <v>114703851.7859016</v>
+        <v>117358953.4110474</v>
       </c>
     </row>
     <row r="413">
@@ -3744,7 +3744,7 @@
         <v>45251</v>
       </c>
       <c r="B413" t="n">
-        <v>114776340.569031</v>
+        <v>117447522.4652598</v>
       </c>
     </row>
     <row r="414">
@@ -3752,7 +3752,7 @@
         <v>45252</v>
       </c>
       <c r="B414" t="n">
-        <v>114897657.3128109</v>
+        <v>117619119.5134414</v>
       </c>
     </row>
     <row r="415">
@@ -3760,7 +3760,7 @@
         <v>45254</v>
       </c>
       <c r="B415" t="n">
-        <v>114973076.2447907</v>
+        <v>117724272.206037</v>
       </c>
     </row>
     <row r="416">
@@ -3768,7 +3768,7 @@
         <v>45257</v>
       </c>
       <c r="B416" t="n">
-        <v>114943502.1363776</v>
+        <v>117658433.1723266</v>
       </c>
     </row>
     <row r="417">
@@ -3776,7 +3776,7 @@
         <v>45258</v>
       </c>
       <c r="B417" t="n">
-        <v>114917854.6469773</v>
+        <v>117610377.773494</v>
       </c>
     </row>
     <row r="418">
@@ -3784,7 +3784,7 @@
         <v>45259</v>
       </c>
       <c r="B418" t="n">
-        <v>115052181.1701698</v>
+        <v>117781787.5621259</v>
       </c>
     </row>
     <row r="419">
@@ -3792,7 +3792,7 @@
         <v>45260</v>
       </c>
       <c r="B419" t="n">
-        <v>115104147.3391578</v>
+        <v>117856434.9221362</v>
       </c>
     </row>
     <row r="420">
@@ -3800,7 +3800,7 @@
         <v>45261</v>
       </c>
       <c r="B420" t="n">
-        <v>115245635.6436362</v>
+        <v>118081463.7495046</v>
       </c>
     </row>
     <row r="421">
@@ -3808,7 +3808,7 @@
         <v>45264</v>
       </c>
       <c r="B421" t="n">
-        <v>115305644.2332621</v>
+        <v>118140741.2454247</v>
       </c>
     </row>
     <row r="422">
@@ -3816,7 +3816,7 @@
         <v>45265</v>
       </c>
       <c r="B422" t="n">
-        <v>115217721.1843569</v>
+        <v>117985097.4496089</v>
       </c>
     </row>
     <row r="423">
@@ -3824,7 +3824,7 @@
         <v>45266</v>
       </c>
       <c r="B423" t="n">
-        <v>115222702.1458391</v>
+        <v>117985548.8567923</v>
       </c>
     </row>
     <row r="424">
@@ -3832,7 +3832,7 @@
         <v>45267</v>
       </c>
       <c r="B424" t="n">
-        <v>115317778.4841455</v>
+        <v>118142108.4118493</v>
       </c>
     </row>
     <row r="425">
@@ -3840,7 +3840,7 @@
         <v>45268</v>
       </c>
       <c r="B425" t="n">
-        <v>115321965.3430479</v>
+        <v>118178755.3003816</v>
       </c>
     </row>
     <row r="426">
@@ -3848,7 +3848,7 @@
         <v>45271</v>
       </c>
       <c r="B426" t="n">
-        <v>115412657.9412565</v>
+        <v>118321191.5711004</v>
       </c>
     </row>
     <row r="427">
@@ -3856,7 +3856,7 @@
         <v>45272</v>
       </c>
       <c r="B427" t="n">
-        <v>115490472.972456</v>
+        <v>118425764.3439244</v>
       </c>
     </row>
     <row r="428">
@@ -3864,7 +3864,7 @@
         <v>45273</v>
       </c>
       <c r="B428" t="n">
-        <v>115783722.2389114</v>
+        <v>118844841.5506172</v>
       </c>
     </row>
     <row r="429">
@@ -3872,7 +3872,7 @@
         <v>45274</v>
       </c>
       <c r="B429" t="n">
-        <v>115929758.8665254</v>
+        <v>119121301.0549081</v>
       </c>
     </row>
     <row r="430">
@@ -3880,7 +3880,7 @@
         <v>45275</v>
       </c>
       <c r="B430" t="n">
-        <v>115895950.8686074</v>
+        <v>119062129.8796723</v>
       </c>
     </row>
     <row r="431">
@@ -3888,7 +3888,7 @@
         <v>45278</v>
       </c>
       <c r="B431" t="n">
-        <v>115960258.2898981</v>
+        <v>119130646.1276567</v>
       </c>
     </row>
     <row r="432">
@@ -3896,7 +3896,7 @@
         <v>45279</v>
       </c>
       <c r="B432" t="n">
-        <v>116104639.4712987</v>
+        <v>119245237.9128458</v>
       </c>
     </row>
     <row r="433">
@@ -3904,7 +3904,7 @@
         <v>45280</v>
       </c>
       <c r="B433" t="n">
-        <v>115941065.6363458</v>
+        <v>119094958.998988</v>
       </c>
     </row>
     <row r="434">
@@ -3912,7 +3912,7 @@
         <v>45281</v>
       </c>
       <c r="B434" t="n">
-        <v>116183375.2990161</v>
+        <v>119260526.9595008</v>
       </c>
     </row>
     <row r="435">
@@ -3920,7 +3920,7 @@
         <v>45282</v>
       </c>
       <c r="B435" t="n">
-        <v>116193398.9762811</v>
+        <v>119293564.4274738</v>
       </c>
     </row>
     <row r="436">
@@ -3928,7 +3928,7 @@
         <v>45286</v>
       </c>
       <c r="B436" t="n">
-        <v>116302379.667031</v>
+        <v>119376932.4227425</v>
       </c>
     </row>
     <row r="437">
@@ -3936,7 +3936,7 @@
         <v>45287</v>
       </c>
       <c r="B437" t="n">
-        <v>116326913.7605388</v>
+        <v>119397777.492186</v>
       </c>
     </row>
     <row r="438">
@@ -3944,7 +3944,7 @@
         <v>45288</v>
       </c>
       <c r="B438" t="n">
-        <v>116322508.4988853</v>
+        <v>119403766.8396641</v>
       </c>
     </row>
     <row r="439">
@@ -3952,7 +3952,7 @@
         <v>45289</v>
       </c>
       <c r="B439" t="n">
-        <v>116287210.9027691</v>
+        <v>119353987.1251108</v>
       </c>
     </row>
     <row r="440">
@@ -3960,7 +3960,7 @@
         <v>45293</v>
       </c>
       <c r="B440" t="n">
-        <v>116210544.6487966</v>
+        <v>119332025.4778358</v>
       </c>
     </row>
     <row r="441">
@@ -3968,7 +3968,7 @@
         <v>45294</v>
       </c>
       <c r="B441" t="n">
-        <v>115945414.6337146</v>
+        <v>119097662.9347947</v>
       </c>
     </row>
     <row r="442">
@@ -3976,7 +3976,7 @@
         <v>45295</v>
       </c>
       <c r="B442" t="n">
-        <v>116033488.4411043</v>
+        <v>119162872.8656138</v>
       </c>
     </row>
     <row r="443">
@@ -3984,7 +3984,7 @@
         <v>45296</v>
       </c>
       <c r="B443" t="n">
-        <v>116022718.5134003</v>
+        <v>119194705.0203058</v>
       </c>
     </row>
     <row r="444">
@@ -3992,7 +3992,7 @@
         <v>45299</v>
       </c>
       <c r="B444" t="n">
-        <v>116166285.4249842</v>
+        <v>119378833.7878214</v>
       </c>
     </row>
     <row r="445">
@@ -4000,7 +4000,7 @@
         <v>45300</v>
       </c>
       <c r="B445" t="n">
-        <v>116199964.4221502</v>
+        <v>119406079.1600195</v>
       </c>
     </row>
     <row r="446">
@@ -4008,7 +4008,7 @@
         <v>45301</v>
       </c>
       <c r="B446" t="n">
-        <v>116237319.6900125</v>
+        <v>119441269.8492171</v>
       </c>
     </row>
     <row r="447">
@@ -4016,7 +4016,7 @@
         <v>45302</v>
       </c>
       <c r="B447" t="n">
-        <v>116278068.3806851</v>
+        <v>119447641.8905495</v>
       </c>
     </row>
     <row r="448">
@@ -4024,7 +4024,7 @@
         <v>45303</v>
       </c>
       <c r="B448" t="n">
-        <v>116153517.4516658</v>
+        <v>119324703.8804093</v>
       </c>
     </row>
     <row r="449">
@@ -4032,7 +4032,7 @@
         <v>45307</v>
       </c>
       <c r="B449" t="n">
-        <v>116101186.2252393</v>
+        <v>119214861.7089257</v>
       </c>
     </row>
     <row r="450">
@@ -4040,7 +4040,7 @@
         <v>45308</v>
       </c>
       <c r="B450" t="n">
-        <v>116087480.951037</v>
+        <v>119136028.5911286</v>
       </c>
     </row>
     <row r="451">
@@ -4048,7 +4048,7 @@
         <v>45309</v>
       </c>
       <c r="B451" t="n">
-        <v>116187970.7817488</v>
+        <v>119251271.1082381</v>
       </c>
     </row>
     <row r="452">
@@ -4056,7 +4056,7 @@
         <v>45310</v>
       </c>
       <c r="B452" t="n">
-        <v>116266318.1206939</v>
+        <v>119469847.9945103</v>
       </c>
     </row>
     <row r="453">
@@ -4064,7 +4064,7 @@
         <v>45313</v>
       </c>
       <c r="B453" t="n">
-        <v>116335721.5608206</v>
+        <v>119566370.8887447</v>
       </c>
     </row>
     <row r="454">
@@ -4072,7 +4072,7 @@
         <v>45314</v>
       </c>
       <c r="B454" t="n">
-        <v>116364499.475714</v>
+        <v>119615357.1271194</v>
       </c>
     </row>
     <row r="455">
@@ -4080,7 +4080,7 @@
         <v>45315</v>
       </c>
       <c r="B455" t="n">
-        <v>116305087.1327693</v>
+        <v>119589145.6519138</v>
       </c>
     </row>
     <row r="456">
@@ -4088,7 +4088,7 @@
         <v>45316</v>
       </c>
       <c r="B456" t="n">
-        <v>116380535.4184811</v>
+        <v>119723617.9829011</v>
       </c>
     </row>
     <row r="457">
@@ -4096,7 +4096,7 @@
         <v>45317</v>
       </c>
       <c r="B457" t="n">
-        <v>116374494.3079436</v>
+        <v>119732826.3053422</v>
       </c>
     </row>
     <row r="458">
@@ -4104,7 +4104,7 @@
         <v>45320</v>
       </c>
       <c r="B458" t="n">
-        <v>116468512.6172131</v>
+        <v>119820256.7866555</v>
       </c>
     </row>
     <row r="459">
@@ -4112,7 +4112,7 @@
         <v>45321</v>
       </c>
       <c r="B459" t="n">
-        <v>116418123.7147174</v>
+        <v>119832539.3217404</v>
       </c>
     </row>
     <row r="460">
@@ -4120,7 +4120,7 @@
         <v>45322</v>
       </c>
       <c r="B460" t="n">
-        <v>116300595.8674502</v>
+        <v>119638859.0542474</v>
       </c>
     </row>
     <row r="461">
@@ -4128,7 +4128,7 @@
         <v>45323</v>
       </c>
       <c r="B461" t="n">
-        <v>116454807.502643</v>
+        <v>119789528.9915241</v>
       </c>
     </row>
     <row r="462">
@@ -4136,7 +4136,7 @@
         <v>45324</v>
       </c>
       <c r="B462" t="n">
-        <v>116450338.916501</v>
+        <v>119814704.1755563</v>
       </c>
     </row>
     <row r="463">
@@ -4144,7 +4144,7 @@
         <v>45327</v>
       </c>
       <c r="B463" t="n">
-        <v>116414190.7713934</v>
+        <v>119741566.6391687</v>
       </c>
     </row>
     <row r="464">
@@ -4152,7 +4152,7 @@
         <v>45328</v>
       </c>
       <c r="B464" t="n">
-        <v>116567744.4177177</v>
+        <v>119881923.6710099</v>
       </c>
     </row>
     <row r="465">
@@ -4160,7 +4160,7 @@
         <v>45329</v>
       </c>
       <c r="B465" t="n">
-        <v>116595392.7226087</v>
+        <v>119971122.3955268</v>
       </c>
     </row>
     <row r="466">
@@ -4168,7 +4168,7 @@
         <v>45330</v>
       </c>
       <c r="B466" t="n">
-        <v>116588253.1504217</v>
+        <v>120007809.9628824</v>
       </c>
     </row>
     <row r="467">
@@ -4176,7 +4176,7 @@
         <v>45331</v>
       </c>
       <c r="B467" t="n">
-        <v>116572850.907115</v>
+        <v>120066559.4207104</v>
       </c>
     </row>
     <row r="468">
@@ -4184,7 +4184,7 @@
         <v>45334</v>
       </c>
       <c r="B468" t="n">
-        <v>116629214.2867101</v>
+        <v>120181283.8684325</v>
       </c>
     </row>
     <row r="469">
@@ -4192,7 +4192,7 @@
         <v>45335</v>
       </c>
       <c r="B469" t="n">
-        <v>116465449.5231328</v>
+        <v>119908787.1049414</v>
       </c>
     </row>
     <row r="470">
@@ -4200,7 +4200,7 @@
         <v>45336</v>
       </c>
       <c r="B470" t="n">
-        <v>116587586.9017192</v>
+        <v>120144240.2429157</v>
       </c>
     </row>
     <row r="471">
@@ -4208,7 +4208,7 @@
         <v>45337</v>
       </c>
       <c r="B471" t="n">
-        <v>116734990.5185458</v>
+        <v>120323840.0290048</v>
       </c>
     </row>
     <row r="472">
@@ -4216,7 +4216,7 @@
         <v>45338</v>
       </c>
       <c r="B472" t="n">
-        <v>116638364.1423387</v>
+        <v>120197610.6539778</v>
       </c>
     </row>
     <row r="473">
@@ -4224,7 +4224,7 @@
         <v>45342</v>
       </c>
       <c r="B473" t="n">
-        <v>116633401.468477</v>
+        <v>120163409.8408258</v>
       </c>
     </row>
     <row r="474">
@@ -4232,7 +4232,7 @@
         <v>45343</v>
       </c>
       <c r="B474" t="n">
-        <v>116692314.1032011</v>
+        <v>120228245.9498207</v>
       </c>
     </row>
     <row r="475">
@@ -4240,7 +4240,7 @@
         <v>45344</v>
       </c>
       <c r="B475" t="n">
-        <v>116838742.3244729</v>
+        <v>120468395.2097903</v>
       </c>
     </row>
     <row r="476">
@@ -4248,7 +4248,7 @@
         <v>45345</v>
       </c>
       <c r="B476" t="n">
-        <v>116737903.5628786</v>
+        <v>120463871.249829</v>
       </c>
     </row>
     <row r="477">
@@ -4256,7 +4256,7 @@
         <v>45348</v>
       </c>
       <c r="B477" t="n">
-        <v>116542569.6267587</v>
+        <v>120372717.6080402</v>
       </c>
     </row>
     <row r="478">
@@ -4264,7 +4264,7 @@
         <v>45349</v>
       </c>
       <c r="B478" t="n">
-        <v>116563527.0849326</v>
+        <v>120417431.6601928</v>
       </c>
     </row>
     <row r="479">
@@ -4272,7 +4272,7 @@
         <v>45350</v>
       </c>
       <c r="B479" t="n">
-        <v>116534742.9497724</v>
+        <v>120414341.0195913</v>
       </c>
     </row>
     <row r="480">
@@ -4280,7 +4280,7 @@
         <v>45351</v>
       </c>
       <c r="B480" t="n">
-        <v>116606432.4187672</v>
+        <v>120543818.0044215</v>
       </c>
     </row>
     <row r="481">
@@ -4288,7 +4288,7 @@
         <v>45352</v>
       </c>
       <c r="B481" t="n">
-        <v>116761066.7112352</v>
+        <v>120707426.6469049</v>
       </c>
     </row>
     <row r="482">
@@ -4296,7 +4296,7 @@
         <v>45355</v>
       </c>
       <c r="B482" t="n">
-        <v>116836026.9345718</v>
+        <v>120816592.64453</v>
       </c>
     </row>
     <row r="483">
@@ -4304,7 +4304,7 @@
         <v>45356</v>
       </c>
       <c r="B483" t="n">
-        <v>116747532.444692</v>
+        <v>120691852.2035826</v>
       </c>
     </row>
     <row r="484">
@@ -4312,7 +4312,7 @@
         <v>45357</v>
       </c>
       <c r="B484" t="n">
-        <v>116847839.0290978</v>
+        <v>120832673.5146994</v>
       </c>
     </row>
     <row r="485">
@@ -4320,7 +4320,7 @@
         <v>45358</v>
       </c>
       <c r="B485" t="n">
-        <v>117067039.2387433</v>
+        <v>121130903.354773</v>
       </c>
     </row>
     <row r="486">
@@ -4328,7 +4328,7 @@
         <v>45359</v>
       </c>
       <c r="B486" t="n">
-        <v>117084114.2105702</v>
+        <v>121046166.5676893</v>
       </c>
     </row>
     <row r="487">
@@ -4336,7 +4336,7 @@
         <v>45362</v>
       </c>
       <c r="B487" t="n">
-        <v>117112390.506152</v>
+        <v>121069605.1607897</v>
       </c>
     </row>
     <row r="488">
@@ -4344,7 +4344,7 @@
         <v>45363</v>
       </c>
       <c r="B488" t="n">
-        <v>117162406.5573642</v>
+        <v>121145162.9373838</v>
       </c>
     </row>
     <row r="489">
@@ -4352,7 +4352,7 @@
         <v>45364</v>
       </c>
       <c r="B489" t="n">
-        <v>117095480.325296</v>
+        <v>121122141.353041</v>
       </c>
     </row>
     <row r="490">
@@ -4360,7 +4360,7 @@
         <v>45365</v>
       </c>
       <c r="B490" t="n">
-        <v>116912817.3578557</v>
+        <v>120850068.2163935</v>
       </c>
     </row>
     <row r="491">
@@ -4368,7 +4368,7 @@
         <v>45366</v>
       </c>
       <c r="B491" t="n">
-        <v>116894448.4357073</v>
+        <v>120818235.0440083</v>
       </c>
     </row>
     <row r="492">
@@ -4376,7 +4376,7 @@
         <v>45369</v>
       </c>
       <c r="B492" t="n">
-        <v>116965965.3657996</v>
+        <v>120833460.2838689</v>
       </c>
     </row>
     <row r="493">
@@ -4384,7 +4384,7 @@
         <v>45370</v>
       </c>
       <c r="B493" t="n">
-        <v>117001252.7934629</v>
+        <v>120929350.2332349</v>
       </c>
     </row>
     <row r="494">
@@ -4392,7 +4392,7 @@
         <v>45371</v>
       </c>
       <c r="B494" t="n">
-        <v>117089267.7928216</v>
+        <v>121210186.8042267</v>
       </c>
     </row>
     <row r="495">
@@ -4400,7 +4400,7 @@
         <v>45372</v>
       </c>
       <c r="B495" t="n">
-        <v>117224833.6742944</v>
+        <v>121492872.4451747</v>
       </c>
     </row>
     <row r="496">
@@ -4408,7 +4408,7 @@
         <v>45373</v>
       </c>
       <c r="B496" t="n">
-        <v>117131536.2439989</v>
+        <v>121316003.1789465</v>
       </c>
     </row>
     <row r="497">
@@ -4416,7 +4416,7 @@
         <v>45376</v>
       </c>
       <c r="B497" t="n">
-        <v>117081047.4565089</v>
+        <v>121159162.0120281</v>
       </c>
     </row>
     <row r="498">
@@ -4424,7 +4424,7 @@
         <v>45377</v>
       </c>
       <c r="B498" t="n">
-        <v>117084893.8329778</v>
+        <v>121149626.3029589</v>
       </c>
     </row>
     <row r="499">
@@ -4432,7 +4432,7 @@
         <v>45378</v>
       </c>
       <c r="B499" t="n">
-        <v>117303074.7575299</v>
+        <v>121599956.2017123</v>
       </c>
     </row>
     <row r="500">
@@ -4440,7 +4440,7 @@
         <v>45379</v>
       </c>
       <c r="B500" t="n">
-        <v>117394720.262809</v>
+        <v>121755815.504792</v>
       </c>
     </row>
     <row r="501">
@@ -4448,7 +4448,7 @@
         <v>45383</v>
       </c>
       <c r="B501" t="n">
-        <v>117262395.1340663</v>
+        <v>121501187.6626702</v>
       </c>
     </row>
     <row r="502">
@@ -4456,7 +4456,7 @@
         <v>45384</v>
       </c>
       <c r="B502" t="n">
-        <v>117111109.1253586</v>
+        <v>121128908.6607118</v>
       </c>
     </row>
     <row r="503">
@@ -4464,7 +4464,7 @@
         <v>45385</v>
       </c>
       <c r="B503" t="n">
-        <v>117146463.3550535</v>
+        <v>121157161.7630426</v>
       </c>
     </row>
     <row r="504">
@@ -4472,7 +4472,7 @@
         <v>45386</v>
       </c>
       <c r="B504" t="n">
-        <v>117045141.1478876</v>
+        <v>120881691.4159501</v>
       </c>
     </row>
     <row r="505">
@@ -4480,7 +4480,7 @@
         <v>45387</v>
       </c>
       <c r="B505" t="n">
-        <v>117138920.9715941</v>
+        <v>121053742.203433</v>
       </c>
     </row>
     <row r="506">
@@ -4488,7 +4488,7 @@
         <v>45390</v>
       </c>
       <c r="B506" t="n">
-        <v>117242646.1198489</v>
+        <v>121214049.7421323</v>
       </c>
     </row>
     <row r="507">
@@ -4496,7 +4496,7 @@
         <v>45391</v>
       </c>
       <c r="B507" t="n">
-        <v>117419773.860363</v>
+        <v>121467271.8745553</v>
       </c>
     </row>
     <row r="508">
@@ -4504,7 +4504,7 @@
         <v>45392</v>
       </c>
       <c r="B508" t="n">
-        <v>117215710.0038516</v>
+        <v>120959246.097924</v>
       </c>
     </row>
     <row r="509">
@@ -4512,7 +4512,7 @@
         <v>45393</v>
       </c>
       <c r="B509" t="n">
-        <v>117219645.5208091</v>
+        <v>120975572.4081745</v>
       </c>
     </row>
     <row r="510">
@@ -4520,7 +4520,7 @@
         <v>45394</v>
       </c>
       <c r="B510" t="n">
-        <v>117020298.2422896</v>
+        <v>120490690.4397979</v>
       </c>
     </row>
     <row r="511">
@@ -4528,7 +4528,7 @@
         <v>45397</v>
       </c>
       <c r="B511" t="n">
-        <v>116942535.93291</v>
+        <v>120280586.883723</v>
       </c>
     </row>
     <row r="512">
@@ -4536,7 +4536,7 @@
         <v>45398</v>
       </c>
       <c r="B512" t="n">
-        <v>116921857.2024093</v>
+        <v>120205966.3589509</v>
       </c>
     </row>
     <row r="513">
@@ -4544,7 +4544,7 @@
         <v>45399</v>
       </c>
       <c r="B513" t="n">
-        <v>116816126.2263278</v>
+        <v>120231096.5405543</v>
       </c>
     </row>
     <row r="514">
@@ -4552,7 +4552,7 @@
         <v>45400</v>
       </c>
       <c r="B514" t="n">
-        <v>116815704.3050096</v>
+        <v>120229662.5559919</v>
       </c>
     </row>
     <row r="515">
@@ -4560,7 +4560,7 @@
         <v>45401</v>
       </c>
       <c r="B515" t="n">
-        <v>116865354.7265701</v>
+        <v>120276846.7662577</v>
       </c>
     </row>
     <row r="516">
@@ -4568,7 +4568,7 @@
         <v>45404</v>
       </c>
       <c r="B516" t="n">
-        <v>116938868.95247</v>
+        <v>120476884.7988915</v>
       </c>
     </row>
     <row r="517">
@@ -4576,7 +4576,7 @@
         <v>45405</v>
       </c>
       <c r="B517" t="n">
-        <v>117109123.252023</v>
+        <v>120809415.6828046</v>
       </c>
     </row>
     <row r="518">
@@ -4584,7 +4584,7 @@
         <v>45406</v>
       </c>
       <c r="B518" t="n">
-        <v>117170390.5051109</v>
+        <v>120867068.1884594</v>
       </c>
     </row>
     <row r="519">
@@ -4592,7 +4592,7 @@
         <v>45407</v>
       </c>
       <c r="B519" t="n">
-        <v>117129992.497877</v>
+        <v>120749328.4879673</v>
       </c>
     </row>
     <row r="520">
@@ -4600,7 +4600,7 @@
         <v>45408</v>
       </c>
       <c r="B520" t="n">
-        <v>117290654.2242858</v>
+        <v>120893841.5735777</v>
       </c>
     </row>
     <row r="521">
@@ -4608,7 +4608,7 @@
         <v>45411</v>
       </c>
       <c r="B521" t="n">
-        <v>117419931.2103994</v>
+        <v>121077285.5918951</v>
       </c>
     </row>
     <row r="522">
@@ -4616,7 +4616,7 @@
         <v>45412</v>
       </c>
       <c r="B522" t="n">
-        <v>117297677.7978009</v>
+        <v>120773969.8911704</v>
       </c>
     </row>
     <row r="523">
@@ -4624,7 +4624,7 @@
         <v>45413</v>
       </c>
       <c r="B523" t="n">
-        <v>117308814.2616887</v>
+        <v>120932381.4296221</v>
       </c>
     </row>
     <row r="524">
@@ -4632,7 +4632,7 @@
         <v>45414</v>
       </c>
       <c r="B524" t="n">
-        <v>117445278.0193086</v>
+        <v>121211319.6810887</v>
       </c>
     </row>
     <row r="525">
@@ -4640,7 +4640,7 @@
         <v>45415</v>
       </c>
       <c r="B525" t="n">
-        <v>117528671.8395227</v>
+        <v>121358689.0692506</v>
       </c>
     </row>
     <row r="526">
@@ -4648,7 +4648,7 @@
         <v>45418</v>
       </c>
       <c r="B526" t="n">
-        <v>117655048.8392065</v>
+        <v>121558804.6984306</v>
       </c>
     </row>
     <row r="527">
@@ -4656,7 +4656,7 @@
         <v>45419</v>
       </c>
       <c r="B527" t="n">
-        <v>117798650.4134078</v>
+        <v>121778700.7751158</v>
       </c>
     </row>
     <row r="528">
@@ -4664,7 +4664,7 @@
         <v>45420</v>
       </c>
       <c r="B528" t="n">
-        <v>117763070.2799275</v>
+        <v>121790835.6807224</v>
       </c>
     </row>
     <row r="529">
@@ -4672,7 +4672,7 @@
         <v>45421</v>
       </c>
       <c r="B529" t="n">
-        <v>117871454.6599704</v>
+        <v>122061947.5925417</v>
       </c>
     </row>
     <row r="530">
@@ -4680,7 +4680,7 @@
         <v>45422</v>
       </c>
       <c r="B530" t="n">
-        <v>117798269.414341</v>
+        <v>122100640.863985</v>
       </c>
     </row>
     <row r="531">
@@ -4688,7 +4688,7 @@
         <v>45425</v>
       </c>
       <c r="B531" t="n">
-        <v>117749782.831042</v>
+        <v>122064642.2627155</v>
       </c>
     </row>
     <row r="532">
@@ -4696,7 +4696,7 @@
         <v>45426</v>
       </c>
       <c r="B532" t="n">
-        <v>117958459.0199294</v>
+        <v>122376733.6866825</v>
       </c>
     </row>
     <row r="533">
@@ -4704,7 +4704,7 @@
         <v>45427</v>
       </c>
       <c r="B533" t="n">
-        <v>118165598.6265963</v>
+        <v>122703665.6388415</v>
       </c>
     </row>
     <row r="534">
@@ -4712,7 +4712,7 @@
         <v>45428</v>
       </c>
       <c r="B534" t="n">
-        <v>118183665.2596643</v>
+        <v>122677383.5195318</v>
       </c>
     </row>
     <row r="535">
@@ -4720,7 +4720,7 @@
         <v>45429</v>
       </c>
       <c r="B535" t="n">
-        <v>118245119.8200966</v>
+        <v>122734220.9860552</v>
       </c>
     </row>
     <row r="536">
@@ -4728,7 +4728,7 @@
         <v>45432</v>
       </c>
       <c r="B536" t="n">
-        <v>118240185.8733176</v>
+        <v>122706290.8474201</v>
       </c>
     </row>
     <row r="537">
@@ -4736,7 +4736,7 @@
         <v>45433</v>
       </c>
       <c r="B537" t="n">
-        <v>118204981.8928224</v>
+        <v>122571040.9417168</v>
       </c>
     </row>
     <row r="538">
@@ -4744,7 +4744,7 @@
         <v>45434</v>
       </c>
       <c r="B538" t="n">
-        <v>118202534.925683</v>
+        <v>122633182.322865</v>
       </c>
     </row>
     <row r="539">
@@ -4752,7 +4752,7 @@
         <v>45435</v>
       </c>
       <c r="B539" t="n">
-        <v>117906801.8919881</v>
+        <v>122068390.0797944</v>
       </c>
     </row>
     <row r="540">
@@ -4760,7 +4760,7 @@
         <v>45436</v>
       </c>
       <c r="B540" t="n">
-        <v>118098936.7132431</v>
+        <v>122287395.7663732</v>
       </c>
     </row>
     <row r="541">
@@ -4768,7 +4768,7 @@
         <v>45440</v>
       </c>
       <c r="B541" t="n">
-        <v>117958601.9864864</v>
+        <v>121995984.1932383</v>
       </c>
     </row>
     <row r="542">
@@ -4776,7 +4776,7 @@
         <v>45441</v>
       </c>
       <c r="B542" t="n">
-        <v>117755217.1321918</v>
+        <v>121538905.5741131</v>
       </c>
     </row>
     <row r="543">
@@ -4784,7 +4784,7 @@
         <v>45442</v>
       </c>
       <c r="B543" t="n">
-        <v>117842278.8861021</v>
+        <v>121681579.6617127</v>
       </c>
     </row>
     <row r="544">
@@ -4792,7 +4792,7 @@
         <v>45443</v>
       </c>
       <c r="B544" t="n">
-        <v>117993022.5057172</v>
+        <v>122044308.3349727</v>
       </c>
     </row>
     <row r="545">
@@ -4800,7 +4800,7 @@
         <v>45446</v>
       </c>
       <c r="B545" t="n">
-        <v>117969236.050016</v>
+        <v>121898423.1670724</v>
       </c>
     </row>
     <row r="546">
@@ -4808,7 +4808,7 @@
         <v>45447</v>
       </c>
       <c r="B546" t="n">
-        <v>117927477.7229804</v>
+        <v>121721013.8768364</v>
       </c>
     </row>
     <row r="547">
@@ -4816,7 +4816,7 @@
         <v>45448</v>
       </c>
       <c r="B547" t="n">
-        <v>118115317.2843437</v>
+        <v>122023553.6000513</v>
       </c>
     </row>
     <row r="548">
@@ -4824,7 +4824,7 @@
         <v>45449</v>
       </c>
       <c r="B548" t="n">
-        <v>118118707.8142736</v>
+        <v>121948995.3839285</v>
       </c>
     </row>
     <row r="549">
@@ -4832,7 +4832,7 @@
         <v>45450</v>
       </c>
       <c r="B549" t="n">
-        <v>118095101.0987112</v>
+        <v>121865393.5544233</v>
       </c>
     </row>
     <row r="550">
@@ -4840,7 +4840,7 @@
         <v>45453</v>
       </c>
       <c r="B550" t="n">
-        <v>118142118.2702374</v>
+        <v>121889184.6944242</v>
       </c>
     </row>
     <row r="551">
@@ -4848,7 +4848,7 @@
         <v>45454</v>
       </c>
       <c r="B551" t="n">
-        <v>118082783.9229082</v>
+        <v>121724996.5803353</v>
       </c>
     </row>
     <row r="552">
@@ -4856,7 +4856,7 @@
         <v>45455</v>
       </c>
       <c r="B552" t="n">
-        <v>118310472.9655128</v>
+        <v>122065827.5474329</v>
       </c>
     </row>
     <row r="553">
@@ -4864,7 +4864,7 @@
         <v>45456</v>
       </c>
       <c r="B553" t="n">
-        <v>118250678.9028816</v>
+        <v>121914294.6989627</v>
       </c>
     </row>
     <row r="554">
@@ -4872,7 +4872,7 @@
         <v>45457</v>
       </c>
       <c r="B554" t="n">
-        <v>118130688.7968225</v>
+        <v>121605017.2837692</v>
       </c>
     </row>
     <row r="555">
@@ -4880,7 +4880,7 @@
         <v>45460</v>
       </c>
       <c r="B555" t="n">
-        <v>118238948.5301919</v>
+        <v>121854499.3155108</v>
       </c>
     </row>
     <row r="556">
@@ -4888,7 +4888,7 @@
         <v>45461</v>
       </c>
       <c r="B556" t="n">
-        <v>118293295.9392415</v>
+        <v>121984449.0568904</v>
       </c>
     </row>
     <row r="557">
@@ -4896,7 +4896,7 @@
         <v>45463</v>
       </c>
       <c r="B557" t="n">
-        <v>118354414.87664</v>
+        <v>122031250.098655</v>
       </c>
     </row>
     <row r="558">
@@ -4904,7 +4904,7 @@
         <v>45464</v>
       </c>
       <c r="B558" t="n">
-        <v>118424674.3035693</v>
+        <v>122080757.9343504</v>
       </c>
     </row>
     <row r="559">
@@ -4912,7 +4912,7 @@
         <v>45467</v>
       </c>
       <c r="B559" t="n">
-        <v>118505511.3961004</v>
+        <v>122175762.6242045</v>
       </c>
     </row>
     <row r="560">
@@ -4920,7 +4920,7 @@
         <v>45468</v>
       </c>
       <c r="B560" t="n">
-        <v>118391798.9563229</v>
+        <v>121858826.6360898</v>
       </c>
     </row>
     <row r="561">
@@ -4928,7 +4928,7 @@
         <v>45469</v>
       </c>
       <c r="B561" t="n">
-        <v>118307933.3017837</v>
+        <v>121659339.9188161</v>
       </c>
     </row>
     <row r="562">
@@ -4936,7 +4936,7 @@
         <v>45470</v>
       </c>
       <c r="B562" t="n">
-        <v>118336966.6620982</v>
+        <v>121727517.8958842</v>
       </c>
     </row>
     <row r="563">
@@ -4944,7 +4944,7 @@
         <v>45471</v>
       </c>
       <c r="B563" t="n">
-        <v>118406055.005616</v>
+        <v>121890120.0168078</v>
       </c>
     </row>
     <row r="564">
@@ -4952,7 +4952,7 @@
         <v>45474</v>
       </c>
       <c r="B564" t="n">
-        <v>118270920.8797184</v>
+        <v>121635719.098224</v>
       </c>
     </row>
     <row r="565">
@@ -4960,7 +4960,7 @@
         <v>45475</v>
       </c>
       <c r="B565" t="n">
-        <v>118377922.1426729</v>
+        <v>121820054.4260691</v>
       </c>
     </row>
     <row r="566">
@@ -4968,7 +4968,7 @@
         <v>45476</v>
       </c>
       <c r="B566" t="n">
-        <v>118387511.0139121</v>
+        <v>121746084.8855927</v>
       </c>
     </row>
     <row r="567">
@@ -4976,7 +4976,7 @@
         <v>45478</v>
       </c>
       <c r="B567" t="n">
-        <v>118295139.959786</v>
+        <v>121607819.7114588</v>
       </c>
     </row>
     <row r="568">
@@ -4984,7 +4984,7 @@
         <v>45481</v>
       </c>
       <c r="B568" t="n">
-        <v>118339783.2051112</v>
+        <v>121704264.1305716</v>
       </c>
     </row>
     <row r="569">
@@ -4992,7 +4992,7 @@
         <v>45482</v>
       </c>
       <c r="B569" t="n">
-        <v>118293294.3652597</v>
+        <v>121629158.1596457</v>
       </c>
     </row>
     <row r="570">
@@ -5000,7 +5000,7 @@
         <v>45483</v>
       </c>
       <c r="B570" t="n">
-        <v>118495492.5394025</v>
+        <v>122006956.3038251</v>
       </c>
     </row>
     <row r="571">
@@ -5008,7 +5008,7 @@
         <v>45484</v>
       </c>
       <c r="B571" t="n">
-        <v>118789384.4054214</v>
+        <v>122516287.2953266</v>
       </c>
     </row>
     <row r="572">
@@ -5016,7 +5016,7 @@
         <v>45485</v>
       </c>
       <c r="B572" t="n">
-        <v>118896205.3964762</v>
+        <v>122766693.2392238</v>
       </c>
     </row>
     <row r="573">
@@ -5024,7 +5024,7 @@
         <v>45488</v>
       </c>
       <c r="B573" t="n">
-        <v>119026458.7122895</v>
+        <v>122961996.929105</v>
       </c>
     </row>
     <row r="574">
@@ -5032,7 +5032,7 @@
         <v>45489</v>
       </c>
       <c r="B574" t="n">
-        <v>119531987.9454534</v>
+        <v>123954273.1354832</v>
       </c>
     </row>
     <row r="575">
@@ -5040,7 +5040,7 @@
         <v>45490</v>
       </c>
       <c r="B575" t="n">
-        <v>119344487.358973</v>
+        <v>123625652.7495175</v>
       </c>
     </row>
     <row r="576">
@@ -5048,7 +5048,7 @@
         <v>45491</v>
       </c>
       <c r="B576" t="n">
-        <v>119094806.6201049</v>
+        <v>123005002.9354062</v>
       </c>
     </row>
     <row r="577">
@@ -5056,7 +5056,7 @@
         <v>45492</v>
       </c>
       <c r="B577" t="n">
-        <v>119010524.5892992</v>
+        <v>122725348.6044084</v>
       </c>
     </row>
     <row r="578">
@@ -5064,7 +5064,7 @@
         <v>45495</v>
       </c>
       <c r="B578" t="n">
-        <v>119238361.2641853</v>
+        <v>123217187.73296</v>
       </c>
     </row>
     <row r="579">
@@ -5072,7 +5072,7 @@
         <v>45496</v>
       </c>
       <c r="B579" t="n">
-        <v>119198244.2578987</v>
+        <v>123009116.7778514</v>
       </c>
     </row>
     <row r="580">
@@ -5080,7 +5080,7 @@
         <v>45497</v>
       </c>
       <c r="B580" t="n">
-        <v>118961592.7960636</v>
+        <v>122459918.5912365</v>
       </c>
     </row>
     <row r="581">
@@ -5088,7 +5088,7 @@
         <v>45498</v>
       </c>
       <c r="B581" t="n">
-        <v>119147482.0373752</v>
+        <v>122840208.3001461</v>
       </c>
     </row>
     <row r="582">
@@ -5096,7 +5096,7 @@
         <v>45499</v>
       </c>
       <c r="B582" t="n">
-        <v>119404386.9711509</v>
+        <v>123389228.8112494</v>
       </c>
     </row>
     <row r="583">
@@ -5104,7 +5104,7 @@
         <v>45502</v>
       </c>
       <c r="B583" t="n">
-        <v>119334224.8155993</v>
+        <v>123293267.7351591</v>
       </c>
     </row>
     <row r="584">
@@ -5112,7 +5112,7 @@
         <v>45503</v>
       </c>
       <c r="B584" t="n">
-        <v>119508662.3237038</v>
+        <v>123656857.2053494</v>
       </c>
     </row>
     <row r="585">
@@ -5120,7 +5120,7 @@
         <v>45504</v>
       </c>
       <c r="B585" t="n">
-        <v>119556612.1454504</v>
+        <v>123599482.5593371</v>
       </c>
     </row>
     <row r="586">
@@ -5128,7 +5128,7 @@
         <v>45505</v>
       </c>
       <c r="B586" t="n">
-        <v>119307094.8009797</v>
+        <v>122847273.7902088</v>
       </c>
     </row>
     <row r="587">
@@ -5136,7 +5136,7 @@
         <v>45506</v>
       </c>
       <c r="B587" t="n">
-        <v>118812215.6459893</v>
+        <v>121708651.9954788</v>
       </c>
     </row>
     <row r="588">
@@ -5144,7 +5144,7 @@
         <v>45509</v>
       </c>
       <c r="B588" t="n">
-        <v>118337067.3381665</v>
+        <v>120665944.1610278</v>
       </c>
     </row>
     <row r="589">
@@ -5152,7 +5152,7 @@
         <v>45510</v>
       </c>
       <c r="B589" t="n">
-        <v>118536398.5350016</v>
+        <v>120970481.0009799</v>
       </c>
     </row>
     <row r="590">
@@ -5160,7 +5160,7 @@
         <v>45511</v>
       </c>
       <c r="B590" t="n">
-        <v>118289616.0221906</v>
+        <v>120480106.7534281</v>
       </c>
     </row>
     <row r="591">
@@ -5168,7 +5168,7 @@
         <v>45512</v>
       </c>
       <c r="B591" t="n">
-        <v>118692778.9521667</v>
+        <v>121387399.1303145</v>
       </c>
     </row>
     <row r="592">
@@ -5176,7 +5176,7 @@
         <v>45513</v>
       </c>
       <c r="B592" t="n">
-        <v>118538111.5288315</v>
+        <v>121362148.1981674</v>
       </c>
     </row>
     <row r="593">
@@ -5184,7 +5184,7 @@
         <v>45516</v>
       </c>
       <c r="B593" t="n">
-        <v>118510044.9408914</v>
+        <v>121103487.1775956</v>
       </c>
     </row>
     <row r="594">
@@ -5192,7 +5192,7 @@
         <v>45517</v>
       </c>
       <c r="B594" t="n">
-        <v>118757115.3777506</v>
+        <v>121673414.3401795</v>
       </c>
     </row>
     <row r="595">
@@ -5200,7 +5200,7 @@
         <v>45518</v>
       </c>
       <c r="B595" t="n">
-        <v>118763170.5575134</v>
+        <v>121657110.0898791</v>
       </c>
     </row>
     <row r="596">
@@ -5208,7 +5208,7 @@
         <v>45519</v>
       </c>
       <c r="B596" t="n">
-        <v>119075034.8948682</v>
+        <v>122459035.8688263</v>
       </c>
     </row>
     <row r="597">
@@ -5216,7 +5216,7 @@
         <v>45520</v>
       </c>
       <c r="B597" t="n">
-        <v>119126483.2200691</v>
+        <v>122541976.1407622</v>
       </c>
     </row>
     <row r="598">
@@ -5224,7 +5224,7 @@
         <v>45523</v>
       </c>
       <c r="B598" t="n">
-        <v>119267169.9427008</v>
+        <v>122822702.2987108</v>
       </c>
     </row>
     <row r="599">
@@ -5232,7 +5232,7 @@
         <v>45524</v>
       </c>
       <c r="B599" t="n">
-        <v>119046075.7006492</v>
+        <v>122478596.5237927</v>
       </c>
     </row>
     <row r="600">
@@ -5240,7 +5240,7 @@
         <v>45525</v>
       </c>
       <c r="B600" t="n">
-        <v>119237250.2631196</v>
+        <v>122684803.9295069</v>
       </c>
     </row>
     <row r="601">
@@ -5248,7 +5248,7 @@
         <v>45526</v>
       </c>
       <c r="B601" t="n">
-        <v>119225693.1855167</v>
+        <v>122532582.6842951</v>
       </c>
     </row>
     <row r="602">
@@ -5256,7 +5256,7 @@
         <v>45527</v>
       </c>
       <c r="B602" t="n">
-        <v>119483398.8865154</v>
+        <v>123119625.8658452</v>
       </c>
     </row>
     <row r="603">
@@ -5264,7 +5264,7 @@
         <v>45530</v>
       </c>
       <c r="B603" t="n">
-        <v>119434474.9498584</v>
+        <v>122910726.6482681</v>
       </c>
     </row>
     <row r="604">
@@ -5272,7 +5272,7 @@
         <v>45531</v>
       </c>
       <c r="B604" t="n">
-        <v>119523424.1009565</v>
+        <v>122884209.966317</v>
       </c>
     </row>
     <row r="605">
@@ -5280,7 +5280,7 @@
         <v>45532</v>
       </c>
       <c r="B605" t="n">
-        <v>119619245.7538464</v>
+        <v>122733911.5463658</v>
       </c>
     </row>
     <row r="606">
@@ -5288,7 +5288,7 @@
         <v>45533</v>
       </c>
       <c r="B606" t="n">
-        <v>119723017.4030062</v>
+        <v>123015427.4635272</v>
       </c>
     </row>
     <row r="607">
@@ -5296,7 +5296,7 @@
         <v>45534</v>
       </c>
       <c r="B607" t="n">
-        <v>119836893.4656771</v>
+        <v>123333746.8327304</v>
       </c>
     </row>
     <row r="608">
@@ -5304,7 +5304,7 @@
         <v>45538</v>
       </c>
       <c r="B608" t="n">
-        <v>119708215.3104853</v>
+        <v>122724765.6152126</v>
       </c>
     </row>
     <row r="609">
@@ -5312,7 +5312,7 @@
         <v>45539</v>
       </c>
       <c r="B609" t="n">
-        <v>119715533.0761636</v>
+        <v>122650787.3707081</v>
       </c>
     </row>
     <row r="610">
@@ -5320,7 +5320,7 @@
         <v>45540</v>
       </c>
       <c r="B610" t="n">
-        <v>119659878.2166536</v>
+        <v>122311838.9113075</v>
       </c>
     </row>
     <row r="611">
@@ -5328,7 +5328,7 @@
         <v>45541</v>
       </c>
       <c r="B611" t="n">
-        <v>119496999.2678814</v>
+        <v>121715513.9492352</v>
       </c>
     </row>
     <row r="612">
@@ -5336,7 +5336,7 @@
         <v>45544</v>
       </c>
       <c r="B612" t="n">
-        <v>119750061.9113724</v>
+        <v>122234735.7119277</v>
       </c>
     </row>
     <row r="613">
@@ -5344,7 +5344,7 @@
         <v>45545</v>
       </c>
       <c r="B613" t="n">
-        <v>119805309.35977</v>
+        <v>122211687.1399933</v>
       </c>
     </row>
     <row r="614">
@@ -5352,7 +5352,7 @@
         <v>45546</v>
       </c>
       <c r="B614" t="n">
-        <v>119834788.0056347</v>
+        <v>122227903.2739742</v>
       </c>
     </row>
     <row r="615">
@@ -5360,7 +5360,7 @@
         <v>45547</v>
       </c>
       <c r="B615" t="n">
-        <v>119906296.0323648</v>
+        <v>122352397.8346727</v>
       </c>
     </row>
     <row r="616">
@@ -5368,7 +5368,7 @@
         <v>45548</v>
       </c>
       <c r="B616" t="n">
-        <v>120026335.9136636</v>
+        <v>122706875.4467847</v>
       </c>
     </row>
     <row r="617">
@@ -5376,7 +5376,7 @@
         <v>45551</v>
       </c>
       <c r="B617" t="n">
-        <v>120118674.3922697</v>
+        <v>122916552.161277</v>
       </c>
     </row>
     <row r="618">
@@ -5384,7 +5384,7 @@
         <v>45552</v>
       </c>
       <c r="B618" t="n">
-        <v>120187396.8469262</v>
+        <v>123075033.0426597</v>
       </c>
     </row>
     <row r="619">
@@ -5392,7 +5392,7 @@
         <v>45553</v>
       </c>
       <c r="B619" t="n">
-        <v>120202150.6909577</v>
+        <v>123089623.5538502</v>
       </c>
     </row>
     <row r="620">
@@ -5400,7 +5400,7 @@
         <v>45554</v>
       </c>
       <c r="B620" t="n">
-        <v>120383157.1271107</v>
+        <v>123681998.342531</v>
       </c>
     </row>
     <row r="621">
@@ -5408,7 +5408,7 @@
         <v>45555</v>
       </c>
       <c r="B621" t="n">
-        <v>120325782.5370007</v>
+        <v>123346029.1982254</v>
       </c>
     </row>
     <row r="622">
@@ -5416,7 +5416,7 @@
         <v>45558</v>
       </c>
       <c r="B622" t="n">
-        <v>120347965.9967583</v>
+        <v>123368577.9715202</v>
       </c>
     </row>
     <row r="623">
@@ -5424,7 +5424,7 @@
         <v>45559</v>
       </c>
       <c r="B623" t="n">
-        <v>120389451.0591047</v>
+        <v>123391277.6432307</v>
       </c>
     </row>
     <row r="624">
@@ -5432,7 +5432,7 @@
         <v>45560</v>
       </c>
       <c r="B624" t="n">
-        <v>120319723.5280402</v>
+        <v>123088581.305725</v>
       </c>
     </row>
     <row r="625">
@@ -5440,7 +5440,7 @@
         <v>45561</v>
       </c>
       <c r="B625" t="n">
-        <v>120497526.9068142</v>
+        <v>123592947.17949</v>
       </c>
     </row>
     <row r="626">
@@ -5448,7 +5448,7 @@
         <v>45562</v>
       </c>
       <c r="B626" t="n">
-        <v>120505269.8911451</v>
+        <v>123632972.4627255</v>
       </c>
     </row>
     <row r="627">
@@ -5456,7 +5456,7 @@
         <v>45565</v>
       </c>
       <c r="B627" t="n">
-        <v>120525136.0633793</v>
+        <v>123629819.7137839</v>
       </c>
     </row>
     <row r="628">
@@ -5464,7 +5464,7 @@
         <v>45566</v>
       </c>
       <c r="B628" t="n">
-        <v>120421130.573509</v>
+        <v>122974630.8318191</v>
       </c>
     </row>
     <row r="629">
@@ -5472,7 +5472,7 @@
         <v>45567</v>
       </c>
       <c r="B629" t="n">
-        <v>120429005.0695386</v>
+        <v>122871354.911144</v>
       </c>
     </row>
     <row r="630">
@@ -5480,7 +5480,7 @@
         <v>45568</v>
       </c>
       <c r="B630" t="n">
-        <v>120384218.1830079</v>
+        <v>122607146.9479004</v>
       </c>
     </row>
     <row r="631">
@@ -5488,999 +5488,7 @@
         <v>45569</v>
       </c>
       <c r="B631" t="n">
-        <v>120537896.3201445</v>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="B632" t="n">
-        <v>120484935.9075835</v>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" s="2" t="n">
-        <v>45573</v>
-      </c>
-      <c r="B633" t="n">
-        <v>120527373.3054315</v>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" s="2" t="n">
-        <v>45574</v>
-      </c>
-      <c r="B634" t="n">
-        <v>120642601.2517741</v>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" s="2" t="n">
-        <v>45575</v>
-      </c>
-      <c r="B635" t="n">
-        <v>120617938.1848242</v>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" s="2" t="n">
-        <v>45576</v>
-      </c>
-      <c r="B636" t="n">
-        <v>120773185.5920416</v>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="B637" t="n">
-        <v>120893859.6883455</v>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" s="2" t="n">
-        <v>45580</v>
-      </c>
-      <c r="B638" t="n">
-        <v>120856251.047482</v>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" s="2" t="n">
-        <v>45581</v>
-      </c>
-      <c r="B639" t="n">
-        <v>121035134.8016316</v>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" s="2" t="n">
-        <v>45582</v>
-      </c>
-      <c r="B640" t="n">
-        <v>121016118.4876351</v>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" s="2" t="n">
-        <v>45583</v>
-      </c>
-      <c r="B641" t="n">
-        <v>121055432.9571214</v>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="B642" t="n">
-        <v>120973692.5367559</v>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" s="2" t="n">
-        <v>45587</v>
-      </c>
-      <c r="B643" t="n">
-        <v>120937980.7251999</v>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" s="2" t="n">
-        <v>45588</v>
-      </c>
-      <c r="B644" t="n">
-        <v>120906670.3141309</v>
-      </c>
-    </row>
-    <row r="645">
-      <c r="A645" s="2" t="n">
-        <v>45589</v>
-      </c>
-      <c r="B645" t="n">
-        <v>121083105.6289168</v>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" s="2" t="n">
-        <v>45590</v>
-      </c>
-      <c r="B646" t="n">
-        <v>121039330.7767422</v>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="B647" t="n">
-        <v>121089158.3372926</v>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" s="2" t="n">
-        <v>45594</v>
-      </c>
-      <c r="B648" t="n">
-        <v>121163015.4703501</v>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" s="2" t="n">
-        <v>45595</v>
-      </c>
-      <c r="B649" t="n">
-        <v>121081916.6450604</v>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" s="2" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B650" t="n">
-        <v>120940017.9438673</v>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B651" t="n">
-        <v>120993835.0646407</v>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="B652" t="n">
-        <v>120988117.437506</v>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" s="2" t="n">
-        <v>45601</v>
-      </c>
-      <c r="B653" t="n">
-        <v>121120005.9010344</v>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" s="2" t="n">
-        <v>45602</v>
-      </c>
-      <c r="B654" t="n">
-        <v>121411080.3110213</v>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" s="2" t="n">
-        <v>45603</v>
-      </c>
-      <c r="B655" t="n">
-        <v>121453064.5662648</v>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" s="2" t="n">
-        <v>45604</v>
-      </c>
-      <c r="B656" t="n">
-        <v>121430243.7182673</v>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B657" t="n">
-        <v>121455746.9093536</v>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" s="2" t="n">
-        <v>45608</v>
-      </c>
-      <c r="B658" t="n">
-        <v>121257464.2100015</v>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" s="2" t="n">
-        <v>45609</v>
-      </c>
-      <c r="B659" t="n">
-        <v>121151943.2734137</v>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" s="2" t="n">
-        <v>45610</v>
-      </c>
-      <c r="B660" t="n">
-        <v>120873757.6521817</v>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="B661" t="n">
-        <v>120640554.1330324</v>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B662" t="n">
-        <v>120868220.8244861</v>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" s="2" t="n">
-        <v>45615</v>
-      </c>
-      <c r="B663" t="n">
-        <v>121023232.357802</v>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" s="2" t="n">
-        <v>45616</v>
-      </c>
-      <c r="B664" t="n">
-        <v>121061343.9868516</v>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" s="2" t="n">
-        <v>45617</v>
-      </c>
-      <c r="B665" t="n">
-        <v>121542859.794748</v>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" s="2" t="n">
-        <v>45618</v>
-      </c>
-      <c r="B666" t="n">
-        <v>121838449.1836075</v>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B667" t="n">
-        <v>122421196.6176044</v>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" s="2" t="n">
-        <v>45622</v>
-      </c>
-      <c r="B668" t="n">
-        <v>122085451.161259</v>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" s="2" t="n">
-        <v>45623</v>
-      </c>
-      <c r="B669" t="n">
-        <v>122045400.6031692</v>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" s="2" t="n">
-        <v>45625</v>
-      </c>
-      <c r="B670" t="n">
-        <v>122019771.6567695</v>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B671" t="n">
-        <v>122505502.4867993</v>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" s="2" t="n">
-        <v>45629</v>
-      </c>
-      <c r="B672" t="n">
-        <v>122284925.3314632</v>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" s="2" t="n">
-        <v>45630</v>
-      </c>
-      <c r="B673" t="n">
-        <v>122352148.8405035</v>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" s="2" t="n">
-        <v>45631</v>
-      </c>
-      <c r="B674" t="n">
-        <v>122008141.4057796</v>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" s="2" t="n">
-        <v>45632</v>
-      </c>
-      <c r="B675" t="n">
-        <v>122120660.2869145</v>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B676" t="n">
-        <v>122296905.6451075</v>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" s="2" t="n">
-        <v>45636</v>
-      </c>
-      <c r="B677" t="n">
-        <v>121945368.4435667</v>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" s="2" t="n">
-        <v>45637</v>
-      </c>
-      <c r="B678" t="n">
-        <v>121877819.7458417</v>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" s="2" t="n">
-        <v>45638</v>
-      </c>
-      <c r="B679" t="n">
-        <v>121767449.9748709</v>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" s="2" t="n">
-        <v>45639</v>
-      </c>
-      <c r="B680" t="n">
-        <v>121645654.5263574</v>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B681" t="n">
-        <v>121515282.8904758</v>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" s="2" t="n">
-        <v>45643</v>
-      </c>
-      <c r="B682" t="n">
-        <v>121288202.5041949</v>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" s="2" t="n">
-        <v>45644</v>
-      </c>
-      <c r="B683" t="n">
-        <v>120574866.3303431</v>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" s="2" t="n">
-        <v>45645</v>
-      </c>
-      <c r="B684" t="n">
-        <v>120450489.0821185</v>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" s="2" t="n">
-        <v>45646</v>
-      </c>
-      <c r="B685" t="n">
-        <v>120789866.0965004</v>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B686" t="n">
-        <v>120927905.383451</v>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" s="2" t="n">
-        <v>45650</v>
-      </c>
-      <c r="B687" t="n">
-        <v>121158288.2081517</v>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" s="2" t="n">
-        <v>45652</v>
-      </c>
-      <c r="B688" t="n">
-        <v>121166943.1712179</v>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" s="2" t="n">
-        <v>45653</v>
-      </c>
-      <c r="B689" t="n">
-        <v>120943954.2951843</v>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" s="2" t="n">
-        <v>45656</v>
-      </c>
-      <c r="B690" t="n">
-        <v>120606280.0276219</v>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" s="2" t="n">
-        <v>45657</v>
-      </c>
-      <c r="B691" t="n">
-        <v>120592045.8204426</v>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" s="2" t="n">
-        <v>45659</v>
-      </c>
-      <c r="B692" t="n">
-        <v>120417758.6377542</v>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" s="2" t="n">
-        <v>45660</v>
-      </c>
-      <c r="B693" t="n">
-        <v>120834784.3209831</v>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B694" t="n">
-        <v>121120978.1946622</v>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" s="2" t="n">
-        <v>45664</v>
-      </c>
-      <c r="B695" t="n">
-        <v>121069955.1276933</v>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" s="2" t="n">
-        <v>45665</v>
-      </c>
-      <c r="B696" t="n">
-        <v>121079448.3513566</v>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" s="2" t="n">
-        <v>45667</v>
-      </c>
-      <c r="B697" t="n">
-        <v>120694150.5298707</v>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B698" t="n">
-        <v>120861059.4233699</v>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" s="2" t="n">
-        <v>45671</v>
-      </c>
-      <c r="B699" t="n">
-        <v>120985367.5690798</v>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" s="2" t="n">
-        <v>45672</v>
-      </c>
-      <c r="B700" t="n">
-        <v>121156475.3799789</v>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" s="2" t="n">
-        <v>45673</v>
-      </c>
-      <c r="B701" t="n">
-        <v>121205542.7982763</v>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" s="2" t="n">
-        <v>45674</v>
-      </c>
-      <c r="B702" t="n">
-        <v>121342120.5090816</v>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" s="2" t="n">
-        <v>45678</v>
-      </c>
-      <c r="B703" t="n">
-        <v>121871323.4197312</v>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" s="2" t="n">
-        <v>45679</v>
-      </c>
-      <c r="B704" t="n">
-        <v>121966961.27706</v>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" s="2" t="n">
-        <v>45680</v>
-      </c>
-      <c r="B705" t="n">
-        <v>122109110.4179508</v>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" s="2" t="n">
-        <v>45681</v>
-      </c>
-      <c r="B706" t="n">
-        <v>121927679.6411155</v>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" s="2" t="n">
-        <v>45684</v>
-      </c>
-      <c r="B707" t="n">
-        <v>121909171.8745614</v>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" s="2" t="n">
-        <v>45685</v>
-      </c>
-      <c r="B708" t="n">
-        <v>121671038.6553602</v>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" s="2" t="n">
-        <v>45686</v>
-      </c>
-      <c r="B709" t="n">
-        <v>121448944.8274932</v>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" s="2" t="n">
-        <v>45687</v>
-      </c>
-      <c r="B710" t="n">
-        <v>121734068.7452782</v>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" s="2" t="n">
-        <v>45688</v>
-      </c>
-      <c r="B711" t="n">
-        <v>121648850.4632885</v>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" s="2" t="n">
-        <v>45691</v>
-      </c>
-      <c r="B712" t="n">
-        <v>121318543.3356166</v>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" s="2" t="n">
-        <v>45692</v>
-      </c>
-      <c r="B713" t="n">
-        <v>121368356.3472128</v>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" s="2" t="n">
-        <v>45693</v>
-      </c>
-      <c r="B714" t="n">
-        <v>121698154.6800327</v>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" s="2" t="n">
-        <v>45694</v>
-      </c>
-      <c r="B715" t="n">
-        <v>121514198.5409445</v>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" s="2" t="n">
-        <v>45695</v>
-      </c>
-      <c r="B716" t="n">
-        <v>121358146.3817306</v>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" s="2" t="n">
-        <v>45698</v>
-      </c>
-      <c r="B717" t="n">
-        <v>121544704.3976982</v>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" s="2" t="n">
-        <v>45699</v>
-      </c>
-      <c r="B718" t="n">
-        <v>121291380.3124813</v>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" s="2" t="n">
-        <v>45700</v>
-      </c>
-      <c r="B719" t="n">
-        <v>121113497.9310588</v>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" s="2" t="n">
-        <v>45701</v>
-      </c>
-      <c r="B720" t="n">
-        <v>121284919.0204602</v>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" s="2" t="n">
-        <v>45702</v>
-      </c>
-      <c r="B721" t="n">
-        <v>121364511.6081253</v>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" s="2" t="n">
-        <v>45706</v>
-      </c>
-      <c r="B722" t="n">
-        <v>121744629.6316435</v>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" s="2" t="n">
-        <v>45707</v>
-      </c>
-      <c r="B723" t="n">
-        <v>122130314.4510817</v>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" s="2" t="n">
-        <v>45708</v>
-      </c>
-      <c r="B724" t="n">
-        <v>122016997.4086449</v>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" s="2" t="n">
-        <v>45709</v>
-      </c>
-      <c r="B725" t="n">
-        <v>121380019.1963061</v>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" s="2" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B726" t="n">
-        <v>121334127.2331368</v>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" s="2" t="n">
-        <v>45713</v>
-      </c>
-      <c r="B727" t="n">
-        <v>121207524.1085843</v>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" s="2" t="n">
-        <v>45714</v>
-      </c>
-      <c r="B728" t="n">
-        <v>121073904.0364237</v>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" s="2" t="n">
-        <v>45715</v>
-      </c>
-      <c r="B729" t="n">
-        <v>120606367.6358051</v>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" s="2" t="n">
-        <v>45716</v>
-      </c>
-      <c r="B730" t="n">
-        <v>120920566.2632886</v>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" s="2" t="n">
-        <v>45719</v>
-      </c>
-      <c r="B731" t="n">
-        <v>120435082.3615692</v>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" s="2" t="n">
-        <v>45720</v>
-      </c>
-      <c r="B732" t="n">
-        <v>119962079.9627155</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" s="2" t="n">
-        <v>45721</v>
-      </c>
-      <c r="B733" t="n">
-        <v>120388289.4352725</v>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" s="2" t="n">
-        <v>45722</v>
-      </c>
-      <c r="B734" t="n">
-        <v>120211666.9674603</v>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" s="2" t="n">
-        <v>45723</v>
-      </c>
-      <c r="B735" t="n">
-        <v>120584142.0214947</v>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" s="2" t="n">
-        <v>45726</v>
-      </c>
-      <c r="B736" t="n">
-        <v>119819710.6869929</v>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" s="2" t="n">
-        <v>45727</v>
-      </c>
-      <c r="B737" t="n">
-        <v>119195490.7255768</v>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" s="2" t="n">
-        <v>45728</v>
-      </c>
-      <c r="B738" t="n">
-        <v>119015669.3858958</v>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" s="2" t="n">
-        <v>45729</v>
-      </c>
-      <c r="B739" t="n">
-        <v>118623292.3577427</v>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" s="2" t="n">
-        <v>45730</v>
-      </c>
-      <c r="B740" t="n">
-        <v>119366114.7874466</v>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" s="2" t="n">
-        <v>45733</v>
-      </c>
-      <c r="B741" t="n">
-        <v>119876757.8796507</v>
-      </c>
-    </row>
-    <row r="742">
-      <c r="A742" s="2" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B742" t="n">
-        <v>119723911.3928614</v>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" s="2" t="n">
-        <v>45735</v>
-      </c>
-      <c r="B743" t="n">
-        <v>119827195.7499387</v>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="B744" t="n">
-        <v>119560167.2339646</v>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" s="2" t="n">
-        <v>45737</v>
-      </c>
-      <c r="B745" t="n">
-        <v>119460062.8295359</v>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" s="2" t="n">
-        <v>45740</v>
-      </c>
-      <c r="B746" t="n">
-        <v>120036891.2182349</v>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" s="2" t="n">
-        <v>45741</v>
-      </c>
-      <c r="B747" t="n">
-        <v>119836574.849054</v>
-      </c>
-    </row>
-    <row r="748">
-      <c r="A748" s="2" t="n">
-        <v>45742</v>
-      </c>
-      <c r="B748" t="n">
-        <v>119734354.7528332</v>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" s="2" t="n">
-        <v>45743</v>
-      </c>
-      <c r="B749" t="n">
-        <v>119558448.6686033</v>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" s="2" t="n">
-        <v>45744</v>
-      </c>
-      <c r="B750" t="n">
-        <v>118891677.9593795</v>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="B751" t="n">
-        <v>119056083.4637582</v>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" s="2" t="n">
-        <v>45748</v>
-      </c>
-      <c r="B752" t="n">
-        <v>118941043.5679154</v>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" s="2" t="n">
-        <v>45749</v>
-      </c>
-      <c r="B753" t="n">
-        <v>119254339.932184</v>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" s="2" t="n">
-        <v>45750</v>
-      </c>
-      <c r="B754" t="n">
-        <v>117560088.3555838</v>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" s="2" t="n">
-        <v>45751</v>
-      </c>
-      <c r="B755" t="n">
-        <v>115900931.7247443</v>
+        <v>122971864.6850388</v>
       </c>
     </row>
   </sheetData>
